--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3081146.161813872</v>
+        <v>3079718.02423692</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1221982.047703458</v>
+        <v>1221982.047703456</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673416</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
@@ -722,7 +722,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>62.24100452231476</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.4090929637122</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>143.6269185815734</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>50.29171516770224</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>62.24100452231477</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>25.22163967978254</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>222.1008216780093</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>60.78518453815422</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>138.8041826429325</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1288,64 +1288,64 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>92.54282336887422</v>
       </c>
       <c r="C13" t="n">
-        <v>79.95766428556476</v>
+        <v>31.89994134428741</v>
       </c>
       <c r="D13" t="n">
         <v>61.32631620514928</v>
@@ -1543,7 +1543,7 @@
         <v>79.67253200596136</v>
       </c>
       <c r="H13" t="n">
-        <v>17.72896413885577</v>
+        <v>65.78668708013311</v>
       </c>
       <c r="I13" t="n">
         <v>37.20774443738829</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C14" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D14" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E14" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F14" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G14" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H14" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I14" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970247</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.44210699121983</v>
+        <v>69.44210699121989</v>
       </c>
       <c r="T14" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995361</v>
       </c>
       <c r="U14" t="n">
-        <v>163.8729259592799</v>
+        <v>163.87292595928</v>
       </c>
       <c r="V14" t="n">
-        <v>240.4631016570718</v>
+        <v>240.4631016570719</v>
       </c>
       <c r="W14" t="n">
         <v>261.9518119043499</v>
       </c>
       <c r="X14" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.9487818429905</v>
+        <v>298.9487818429906</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.54282336887418</v>
+        <v>92.54282336887425</v>
       </c>
       <c r="C16" t="n">
-        <v>79.95766428556472</v>
+        <v>79.95766428556479</v>
       </c>
       <c r="D16" t="n">
-        <v>61.32631620514924</v>
+        <v>61.32631620514931</v>
       </c>
       <c r="E16" t="n">
-        <v>59.14480583350606</v>
+        <v>59.14480583350613</v>
       </c>
       <c r="F16" t="n">
-        <v>58.13189120986813</v>
+        <v>10.07416826859032</v>
       </c>
       <c r="G16" t="n">
-        <v>79.67253200596132</v>
+        <v>79.67253200596139</v>
       </c>
       <c r="H16" t="n">
-        <v>65.78668708013306</v>
+        <v>65.78668708013313</v>
       </c>
       <c r="I16" t="n">
-        <v>37.20774443738826</v>
+        <v>37.20774443738832</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.72358903645009</v>
+        <v>43.72358903645017</v>
       </c>
       <c r="S16" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775855</v>
       </c>
       <c r="T16" t="n">
         <v>136.2585548558172</v>
       </c>
       <c r="U16" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V16" t="n">
-        <v>164.8484865107649</v>
+        <v>164.848486510765</v>
       </c>
       <c r="W16" t="n">
-        <v>199.2338415235279</v>
+        <v>199.233841523528</v>
       </c>
       <c r="X16" t="n">
-        <v>90.36277563469856</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y16" t="n">
         <v>131.2954965390317</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C17" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D17" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E17" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F17" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G17" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H17" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I17" t="n">
-        <v>34.72313714970237</v>
+        <v>34.72313714970247</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.4421069912198</v>
+        <v>69.44210699121989</v>
       </c>
       <c r="T17" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995361</v>
       </c>
       <c r="U17" t="n">
-        <v>163.8729259592799</v>
+        <v>163.87292595928</v>
       </c>
       <c r="V17" t="n">
-        <v>240.4631016570718</v>
+        <v>240.4631016570719</v>
       </c>
       <c r="W17" t="n">
         <v>261.9518119043499</v>
       </c>
       <c r="X17" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.9487818429905</v>
+        <v>298.9487818429906</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>100.3781231526287</v>
       </c>
       <c r="I18" t="n">
-        <v>47.12598321092377</v>
+        <v>47.12598321092378</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.93066010031255</v>
+        <v>23.93066010031256</v>
       </c>
       <c r="S18" t="n">
         <v>148.8785594825027</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.54282336887418</v>
+        <v>92.54282336887425</v>
       </c>
       <c r="C19" t="n">
-        <v>79.95766428556472</v>
+        <v>79.95766428556479</v>
       </c>
       <c r="D19" t="n">
-        <v>61.32631620514924</v>
+        <v>61.32631620514931</v>
       </c>
       <c r="E19" t="n">
-        <v>59.14480583350606</v>
+        <v>59.14480583350613</v>
       </c>
       <c r="F19" t="n">
-        <v>58.13189120986813</v>
+        <v>58.1318912098682</v>
       </c>
       <c r="G19" t="n">
-        <v>79.67253200596132</v>
+        <v>79.67253200596139</v>
       </c>
       <c r="H19" t="n">
-        <v>61.4525531753063</v>
+        <v>17.72896413885423</v>
       </c>
       <c r="I19" t="n">
-        <v>37.20774443738824</v>
+        <v>37.20774443738832</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>43.72358903645017</v>
       </c>
       <c r="S19" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775855</v>
       </c>
       <c r="T19" t="n">
         <v>136.2585548558172</v>
       </c>
       <c r="U19" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V19" t="n">
-        <v>164.8484865107649</v>
+        <v>164.848486510765</v>
       </c>
       <c r="W19" t="n">
-        <v>199.2338415235279</v>
+        <v>199.233841523528</v>
       </c>
       <c r="X19" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y19" t="n">
         <v>131.2954965390317</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>295.4446848504164</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C20" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D20" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E20" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F20" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G20" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H20" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I20" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970247</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.44210699121982</v>
+        <v>69.44210699121989</v>
       </c>
       <c r="T20" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995361</v>
       </c>
       <c r="U20" t="n">
-        <v>163.8729259592799</v>
+        <v>163.87292595928</v>
       </c>
       <c r="V20" t="n">
-        <v>240.4631016570718</v>
+        <v>240.4631016570719</v>
       </c>
       <c r="W20" t="n">
         <v>261.9518119043499</v>
       </c>
       <c r="X20" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.9487818429905</v>
+        <v>298.9487818429906</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>92.54282336887418</v>
+        <v>92.54282336887425</v>
       </c>
       <c r="C22" t="n">
-        <v>79.95766428556472</v>
+        <v>79.95766428556479</v>
       </c>
       <c r="D22" t="n">
-        <v>61.32631620514924</v>
+        <v>61.32631620514931</v>
       </c>
       <c r="E22" t="n">
-        <v>59.14480583350606</v>
+        <v>59.14480583350613</v>
       </c>
       <c r="F22" t="n">
-        <v>58.13189120986813</v>
+        <v>58.1318912098682</v>
       </c>
       <c r="G22" t="n">
-        <v>79.67253200596132</v>
+        <v>79.67253200596139</v>
       </c>
       <c r="H22" t="n">
-        <v>17.72896413885644</v>
+        <v>17.72896413885433</v>
       </c>
       <c r="I22" t="n">
-        <v>37.20774443738825</v>
+        <v>37.20774443738832</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>43.7235890364501</v>
+        <v>43.72358903645017</v>
       </c>
       <c r="S22" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775855</v>
       </c>
       <c r="T22" t="n">
         <v>136.2585548558172</v>
       </c>
       <c r="U22" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V22" t="n">
-        <v>164.8484865107649</v>
+        <v>164.848486510765</v>
       </c>
       <c r="W22" t="n">
-        <v>199.2338415235279</v>
+        <v>199.233841523528</v>
       </c>
       <c r="X22" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y22" t="n">
         <v>131.2954965390317</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>295.4446848504164</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C23" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D23" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E23" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F23" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G23" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H23" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I23" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970247</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.44210699121982</v>
+        <v>69.44210699121989</v>
       </c>
       <c r="T23" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995361</v>
       </c>
       <c r="U23" t="n">
-        <v>163.8729259592799</v>
+        <v>163.87292595928</v>
       </c>
       <c r="V23" t="n">
-        <v>240.4631016570718</v>
+        <v>240.4631016570719</v>
       </c>
       <c r="W23" t="n">
-        <v>261.9518119043499</v>
+        <v>261.9518119043483</v>
       </c>
       <c r="X23" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.9487818429905</v>
+        <v>298.9487818429906</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>92.54282336887418</v>
+        <v>92.54282336887425</v>
       </c>
       <c r="C25" t="n">
-        <v>79.95766428556472</v>
+        <v>79.95766428556479</v>
       </c>
       <c r="D25" t="n">
-        <v>61.32631620514924</v>
+        <v>61.32631620514931</v>
       </c>
       <c r="E25" t="n">
-        <v>59.14480583350606</v>
+        <v>59.14480583350613</v>
       </c>
       <c r="F25" t="n">
-        <v>58.13189120986813</v>
+        <v>10.07416826858972</v>
       </c>
       <c r="G25" t="n">
-        <v>79.67253200596132</v>
+        <v>79.67253200596139</v>
       </c>
       <c r="H25" t="n">
-        <v>17.72896413885644</v>
+        <v>65.78668708013313</v>
       </c>
       <c r="I25" t="n">
-        <v>37.20774443738825</v>
+        <v>37.20774443738832</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>43.7235890364501</v>
+        <v>43.72358903645017</v>
       </c>
       <c r="S25" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775855</v>
       </c>
       <c r="T25" t="n">
         <v>136.2585548558172</v>
       </c>
       <c r="U25" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V25" t="n">
-        <v>164.8484865107649</v>
+        <v>164.848486510765</v>
       </c>
       <c r="W25" t="n">
-        <v>199.2338415235279</v>
+        <v>199.233841523528</v>
       </c>
       <c r="X25" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y25" t="n">
         <v>131.2954965390317</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C26" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D26" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E26" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F26" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G26" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H26" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I26" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970242</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.44210699121982</v>
+        <v>69.44210699121986</v>
       </c>
       <c r="T26" t="n">
         <v>125.761964399536</v>
@@ -2615,10 +2615,10 @@
         <v>240.4631016570718</v>
       </c>
       <c r="W26" t="n">
-        <v>261.9518119043506</v>
+        <v>261.9518119043499</v>
       </c>
       <c r="X26" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y26" t="n">
         <v>298.9487818429905</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.54282336887418</v>
+        <v>92.54282336887421</v>
       </c>
       <c r="C28" t="n">
-        <v>79.95766428556472</v>
+        <v>79.95766428556475</v>
       </c>
       <c r="D28" t="n">
-        <v>61.32631620514924</v>
+        <v>61.32631620514927</v>
       </c>
       <c r="E28" t="n">
-        <v>59.14480583350606</v>
+        <v>59.14480583350608</v>
       </c>
       <c r="F28" t="n">
-        <v>58.13189120986813</v>
+        <v>58.13189120986816</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61480906468485</v>
+        <v>79.67253200596134</v>
       </c>
       <c r="H28" t="n">
-        <v>65.78668708013306</v>
+        <v>54.93670857624389</v>
       </c>
       <c r="I28" t="n">
-        <v>37.20774443738825</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.7235890364501</v>
+        <v>43.72358903645012</v>
       </c>
       <c r="S28" t="n">
         <v>118.7897142775854</v>
@@ -2767,7 +2767,7 @@
         <v>136.2585548558172</v>
       </c>
       <c r="U28" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V28" t="n">
         <v>164.8484865107649</v>
@@ -2776,7 +2776,7 @@
         <v>199.2338415235279</v>
       </c>
       <c r="X28" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y28" t="n">
         <v>131.2954965390317</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C29" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D29" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E29" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F29" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G29" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H29" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I29" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970242</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>69.44210699121982</v>
+        <v>69.44210699121984</v>
       </c>
       <c r="T29" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995361</v>
       </c>
       <c r="U29" t="n">
         <v>163.8729259592799</v>
@@ -2855,7 +2855,7 @@
         <v>261.9518119043499</v>
       </c>
       <c r="X29" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y29" t="n">
         <v>298.9487818429905</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.54282336887418</v>
+        <v>92.54282336887421</v>
       </c>
       <c r="C31" t="n">
-        <v>79.95766428556472</v>
+        <v>79.95766428556475</v>
       </c>
       <c r="D31" t="n">
-        <v>61.32631620514924</v>
+        <v>61.32631620514927</v>
       </c>
       <c r="E31" t="n">
-        <v>59.14480583350606</v>
+        <v>59.14480583350608</v>
       </c>
       <c r="F31" t="n">
-        <v>58.13189120986813</v>
+        <v>58.13189120986816</v>
       </c>
       <c r="G31" t="n">
-        <v>79.67253200596132</v>
+        <v>79.67253200596134</v>
       </c>
       <c r="H31" t="n">
-        <v>65.78668708013305</v>
+        <v>54.93670857624452</v>
       </c>
       <c r="I31" t="n">
-        <v>32.87361053256198</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>43.72358903645013</v>
       </c>
       <c r="S31" t="n">
-        <v>118.7897142775854</v>
+        <v>118.7897142775855</v>
       </c>
       <c r="T31" t="n">
         <v>136.2585548558172</v>
       </c>
       <c r="U31" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V31" t="n">
         <v>164.8484865107649</v>
@@ -3013,7 +3013,7 @@
         <v>199.2338415235279</v>
       </c>
       <c r="X31" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y31" t="n">
         <v>131.2954965390317</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C32" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D32" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E32" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F32" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G32" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H32" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I32" t="n">
-        <v>34.7231371497024</v>
+        <v>34.72313714970242</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.44210699121982</v>
+        <v>69.44210699121986</v>
       </c>
       <c r="T32" t="n">
         <v>125.761964399536</v>
@@ -3092,7 +3092,7 @@
         <v>261.9518119043499</v>
       </c>
       <c r="X32" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y32" t="n">
         <v>298.9487818429905</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.54282336887418</v>
+        <v>92.54282336887421</v>
       </c>
       <c r="C34" t="n">
-        <v>79.95766428556472</v>
+        <v>79.95766428556475</v>
       </c>
       <c r="D34" t="n">
-        <v>61.32631620514924</v>
+        <v>61.32631620514927</v>
       </c>
       <c r="E34" t="n">
-        <v>59.14480583350606</v>
+        <v>59.14480583350608</v>
       </c>
       <c r="F34" t="n">
-        <v>58.13189120986813</v>
+        <v>58.13189120986816</v>
       </c>
       <c r="G34" t="n">
-        <v>79.67253200596132</v>
+        <v>68.82255350207321</v>
       </c>
       <c r="H34" t="n">
-        <v>65.78668708013306</v>
+        <v>65.78668708013309</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.87361053256245</v>
+        <v>43.72358903645012</v>
       </c>
       <c r="S34" t="n">
         <v>118.7897142775854</v>
@@ -3241,7 +3241,7 @@
         <v>136.2585548558172</v>
       </c>
       <c r="U34" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V34" t="n">
         <v>164.8484865107649</v>
@@ -3250,7 +3250,7 @@
         <v>199.2338415235279</v>
       </c>
       <c r="X34" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y34" t="n">
         <v>131.2954965390317</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C35" t="n">
-        <v>277.9837349579444</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D35" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E35" t="n">
-        <v>294.6412132591986</v>
+        <v>294.6412132591987</v>
       </c>
       <c r="F35" t="n">
-        <v>319.5868889286482</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G35" t="n">
-        <v>325.7189540084037</v>
+        <v>325.7189540084038</v>
       </c>
       <c r="H35" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I35" t="n">
-        <v>34.72313714970232</v>
+        <v>34.72313714970242</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.44210699121975</v>
+        <v>69.44210699121984</v>
       </c>
       <c r="T35" t="n">
-        <v>125.761964399536</v>
+        <v>125.7619643995361</v>
       </c>
       <c r="U35" t="n">
         <v>163.8729259592799</v>
       </c>
       <c r="V35" t="n">
-        <v>240.4631016570717</v>
+        <v>240.4631016570718</v>
       </c>
       <c r="W35" t="n">
-        <v>261.9518119043498</v>
+        <v>261.9518119043499</v>
       </c>
       <c r="X35" t="n">
-        <v>282.4419438654058</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.9487818429904</v>
+        <v>298.9487818429905</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.54282336887411</v>
+        <v>92.54282336887421</v>
       </c>
       <c r="C37" t="n">
-        <v>79.95766428556465</v>
+        <v>79.95766428556475</v>
       </c>
       <c r="D37" t="n">
-        <v>61.32631620514917</v>
+        <v>61.32631620514927</v>
       </c>
       <c r="E37" t="n">
-        <v>59.14480583350598</v>
+        <v>59.14480583350608</v>
       </c>
       <c r="F37" t="n">
-        <v>58.13189120986806</v>
+        <v>58.13189120986816</v>
       </c>
       <c r="G37" t="n">
-        <v>79.67253200596124</v>
+        <v>79.67253200596134</v>
       </c>
       <c r="H37" t="n">
-        <v>61.45255317530832</v>
+        <v>17.72896413885616</v>
       </c>
       <c r="I37" t="n">
-        <v>37.20774443738818</v>
+        <v>37.20774443738828</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>43.72358903645013</v>
       </c>
       <c r="S37" t="n">
-        <v>118.7897142775853</v>
+        <v>118.7897142775855</v>
       </c>
       <c r="T37" t="n">
-        <v>136.2585548558171</v>
+        <v>136.2585548558172</v>
       </c>
       <c r="U37" t="n">
-        <v>198.9737294230949</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V37" t="n">
-        <v>164.8484865107648</v>
+        <v>164.8484865107649</v>
       </c>
       <c r="W37" t="n">
-        <v>199.2338415235278</v>
+        <v>199.2338415235279</v>
       </c>
       <c r="X37" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y37" t="n">
-        <v>131.2954965390316</v>
+        <v>131.2954965390317</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>295.4446848504174</v>
+        <v>295.4446848504175</v>
       </c>
       <c r="C38" t="n">
-        <v>277.9837349579433</v>
+        <v>277.9837349579445</v>
       </c>
       <c r="D38" t="n">
-        <v>267.3938848076198</v>
+        <v>267.3938848076199</v>
       </c>
       <c r="E38" t="n">
         <v>294.6412132591987</v>
       </c>
       <c r="F38" t="n">
-        <v>319.5868889286483</v>
+        <v>319.5868889286484</v>
       </c>
       <c r="G38" t="n">
         <v>325.7189540084038</v>
       </c>
       <c r="H38" t="n">
-        <v>228.6857996761753</v>
+        <v>228.6857996761754</v>
       </c>
       <c r="I38" t="n">
-        <v>34.72313714970238</v>
+        <v>34.72313714970242</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.4421069912198</v>
+        <v>69.44210699121986</v>
       </c>
       <c r="T38" t="n">
         <v>125.761964399536</v>
@@ -3566,7 +3566,7 @@
         <v>261.9518119043499</v>
       </c>
       <c r="X38" t="n">
-        <v>282.4419438654059</v>
+        <v>282.441943865406</v>
       </c>
       <c r="Y38" t="n">
         <v>298.9487818429905</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>92.54282336887417</v>
+        <v>92.54282336887421</v>
       </c>
       <c r="C40" t="n">
-        <v>79.9576642855647</v>
+        <v>79.95766428556475</v>
       </c>
       <c r="D40" t="n">
-        <v>61.32631620514923</v>
+        <v>61.32631620514927</v>
       </c>
       <c r="E40" t="n">
-        <v>59.14480583350604</v>
+        <v>59.14480583350608</v>
       </c>
       <c r="F40" t="n">
-        <v>58.13189120986812</v>
+        <v>10.07416826859167</v>
       </c>
       <c r="G40" t="n">
-        <v>79.6725320059613</v>
+        <v>79.67253200596134</v>
       </c>
       <c r="H40" t="n">
-        <v>17.728964138857</v>
+        <v>65.78668708013309</v>
       </c>
       <c r="I40" t="n">
-        <v>37.20774443738824</v>
+        <v>37.20774443738829</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>43.72358903645009</v>
+        <v>43.72358903645012</v>
       </c>
       <c r="S40" t="n">
         <v>118.7897142775854</v>
@@ -3715,7 +3715,7 @@
         <v>136.2585548558172</v>
       </c>
       <c r="U40" t="n">
-        <v>198.973729423095</v>
+        <v>198.9737294230951</v>
       </c>
       <c r="V40" t="n">
         <v>164.8484865107649</v>
@@ -3724,7 +3724,7 @@
         <v>199.2338415235279</v>
       </c>
       <c r="X40" t="n">
-        <v>138.420498575974</v>
+        <v>138.4204985759741</v>
       </c>
       <c r="Y40" t="n">
         <v>131.2954965390317</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>359.8375769476206</v>
       </c>
       <c r="C41" t="n">
-        <v>342.3766270551476</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>331.786776904823</v>
       </c>
       <c r="E41" t="n">
-        <v>359.0341053564018</v>
+        <v>127.7120719737855</v>
       </c>
       <c r="F41" t="n">
         <v>383.9797810258515</v>
       </c>
       <c r="G41" t="n">
-        <v>115.8428185000036</v>
+        <v>390.111846105607</v>
       </c>
       <c r="H41" t="n">
-        <v>293.0786917733785</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.11602924690555</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>100.3781231526287</v>
       </c>
       <c r="I42" t="n">
-        <v>47.12598321092378</v>
+        <v>47.12598321092377</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.93066010031256</v>
+        <v>23.93066010031255</v>
       </c>
       <c r="S42" t="n">
         <v>148.8785594825027</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.9357154660773</v>
+        <v>154.2343172167268</v>
       </c>
       <c r="C43" t="n">
-        <v>144.3505563827679</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>72.40811065677248</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>123.5376979307092</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>122.5247833070713</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>108.1164811336533</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.1826063747886</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>200.6514469530203</v>
       </c>
       <c r="U43" t="n">
         <v>263.3666215202982</v>
       </c>
       <c r="V43" t="n">
-        <v>229.241378607968</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>202.8133906731772</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>359.8375769476206</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>342.3766270551476</v>
       </c>
       <c r="D44" t="n">
-        <v>331.786776904823</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>201.6732445571837</v>
+        <v>359.0341053564018</v>
       </c>
       <c r="F44" t="n">
         <v>383.9797810258515</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>115.8428185000029</v>
       </c>
       <c r="H44" t="n">
         <v>293.0786917733785</v>
@@ -4028,10 +4028,10 @@
         <v>133.834999088423</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>190.1548564967392</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>228.2658180564831</v>
       </c>
       <c r="V44" t="n">
         <v>304.8559937542749</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>156.9357154660773</v>
       </c>
       <c r="C46" t="n">
-        <v>144.3505563827679</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.7192083023524</v>
+        <v>78.88057159084646</v>
       </c>
       <c r="E46" t="n">
-        <v>123.5376979307092</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>101.6006365345914</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>108.1164811336533</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>200.6514469530203</v>
       </c>
       <c r="U46" t="n">
         <v>263.3666215202982</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>263.626733620731</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>202.8133906731772</v>
       </c>
       <c r="Y46" t="n">
-        <v>191.7640461148057</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>226.7653248291326</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>211.3080142077841</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V2" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W2" t="n">
-        <v>104.5536560184564</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X2" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.68395448076474</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.9038335500135</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C3" t="n">
-        <v>657.9038335500135</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>860.4511411346975</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4437,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>818.9794599736933</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>818.9794599736933</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>583.8273517419507</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>375.9758515364179</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2968567456824</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="4">
@@ -4504,25 +4504,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5536560184564</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>97.60815526925295</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>82.15084464790441</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>82.15084464790441</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4604,13 @@
         <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>348.0024326625565</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="X5" t="n">
-        <v>348.0024326625565</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>285.1327311248648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>327.4530077769195</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C6" t="n">
-        <v>327.4530077769195</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4650,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>938.5807517936842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>938.5807517936842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>938.5807517936842</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>703.4286435619415</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>703.4286435619415</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X6" t="n">
-        <v>703.4286435619415</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y6" t="n">
-        <v>495.6683447969875</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="7">
@@ -4762,7 +4762,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.0282188019862</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="C8" t="n">
-        <v>266.0282188019862</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>741.1834164259405</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>741.1834164259405</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>741.1834164259405</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>741.1834164259405</v>
       </c>
       <c r="W8" t="n">
-        <v>752.9257720901863</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="X8" t="n">
-        <v>509.4769954460863</v>
+        <v>497.7346397818405</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.4769954460863</v>
+        <v>497.7346397818405</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
         <v>19.28114311021272</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>722.6813809696507</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>479.2326043255507</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4993,19 +4993,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1838.280930959698</v>
+        <v>1838.280930959697</v>
       </c>
       <c r="C11" t="n">
         <v>1557.489279487026</v>
@@ -5024,13 +5024,13 @@
         <v>1287.394446348016</v>
       </c>
       <c r="E11" t="n">
-        <v>989.7770592175129</v>
+        <v>989.777059217512</v>
       </c>
       <c r="F11" t="n">
-        <v>666.9620198956459</v>
+        <v>666.962019895645</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9529754427126</v>
+        <v>337.9529754427117</v>
       </c>
       <c r="H11" t="n">
         <v>106.9572181940504</v>
@@ -5069,7 +5069,7 @@
         <v>3524.023571847628</v>
       </c>
       <c r="T11" t="n">
-        <v>3396.99128457537</v>
+        <v>3396.991284575369</v>
       </c>
       <c r="U11" t="n">
         <v>3231.463076535693</v>
@@ -5078,13 +5078,13 @@
         <v>2988.571054659863</v>
       </c>
       <c r="W11" t="n">
-        <v>2723.97326485749</v>
+        <v>2723.973264857489</v>
       </c>
       <c r="X11" t="n">
         <v>2438.67837206415</v>
       </c>
       <c r="Y11" t="n">
-        <v>2136.709905556079</v>
+        <v>2136.709905556078</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>71.88334228526003</v>
       </c>
       <c r="J12" t="n">
-        <v>71.88334228526003</v>
+        <v>185.9781714285405</v>
       </c>
       <c r="K12" t="n">
-        <v>131.6898365204954</v>
+        <v>507.6052503062286</v>
       </c>
       <c r="L12" t="n">
-        <v>402.4305466211997</v>
+        <v>1001.476945390883</v>
       </c>
       <c r="M12" t="n">
-        <v>1030.73474200235</v>
+        <v>1168.733127659533</v>
       </c>
       <c r="N12" t="n">
-        <v>1691.375293245213</v>
+        <v>1829.373678902397</v>
       </c>
       <c r="O12" t="n">
-        <v>2229.316652773412</v>
+        <v>2021.340137914921</v>
       </c>
       <c r="P12" t="n">
-        <v>2644.058951865391</v>
+        <v>2436.0824370069</v>
       </c>
       <c r="Q12" t="n">
         <v>2660.628911095451</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>469.0246737158598</v>
+        <v>469.0246737158596</v>
       </c>
       <c r="C13" t="n">
-        <v>388.2593562556934</v>
+        <v>436.802510741832</v>
       </c>
       <c r="D13" t="n">
-        <v>326.3135823110981</v>
+        <v>374.8567367972367</v>
       </c>
       <c r="E13" t="n">
-        <v>266.5713541964455</v>
+        <v>315.1145086825842</v>
       </c>
       <c r="F13" t="n">
-        <v>207.8522721662756</v>
+        <v>256.3954266524143</v>
       </c>
       <c r="G13" t="n">
-        <v>127.374967109749</v>
+        <v>175.9181215958877</v>
       </c>
       <c r="H13" t="n">
         <v>109.4669225250462</v>
@@ -5206,7 +5206,7 @@
         <v>585.9031657141849</v>
       </c>
       <c r="M13" t="n">
-        <v>871.239980094535</v>
+        <v>871.2399800945346</v>
       </c>
       <c r="N13" t="n">
         <v>1157.281524847586</v>
@@ -5233,16 +5233,16 @@
         <v>1202.702599491792</v>
       </c>
       <c r="V13" t="n">
-        <v>1036.188976753646</v>
+        <v>1036.188976753645</v>
       </c>
       <c r="W13" t="n">
-        <v>834.9426721844256</v>
+        <v>834.9426721844254</v>
       </c>
       <c r="X13" t="n">
-        <v>695.1239867541489</v>
+        <v>695.1239867541485</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.5022730783591</v>
+        <v>562.5022730783588</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1838.280930959697</v>
+        <v>1838.280930959698</v>
       </c>
       <c r="C14" t="n">
-        <v>1557.489279487026</v>
+        <v>1557.489279487027</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348017</v>
       </c>
       <c r="E14" t="n">
-        <v>989.777059217512</v>
+        <v>989.7770592175127</v>
       </c>
       <c r="F14" t="n">
-        <v>666.962019895645</v>
+        <v>666.9620198956457</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9529754427122</v>
+        <v>337.9529754427124</v>
       </c>
       <c r="H14" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I14" t="n">
         <v>71.88334228526003</v>
@@ -5279,7 +5279,7 @@
         <v>252.8595824424915</v>
       </c>
       <c r="K14" t="n">
-        <v>644.8408574352537</v>
+        <v>644.8408574352538</v>
       </c>
       <c r="L14" t="n">
         <v>1183.404917961335</v>
@@ -5315,13 +5315,13 @@
         <v>2988.571054659862</v>
       </c>
       <c r="W14" t="n">
-        <v>2723.973264857489</v>
+        <v>2723.97326485749</v>
       </c>
       <c r="X14" t="n">
-        <v>2438.678372064149</v>
+        <v>2438.678372064151</v>
       </c>
       <c r="Y14" t="n">
-        <v>2136.709905556078</v>
+        <v>2136.709905556079</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>71.88334228526003</v>
       </c>
       <c r="J15" t="n">
-        <v>185.9781714285405</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="K15" t="n">
-        <v>507.6052503062286</v>
+        <v>393.5104211629481</v>
       </c>
       <c r="L15" t="n">
-        <v>1001.476945390883</v>
+        <v>669.0029823628272</v>
       </c>
       <c r="M15" t="n">
-        <v>1629.781140772033</v>
+        <v>1297.307177743977</v>
       </c>
       <c r="N15" t="n">
-        <v>2188.600615424223</v>
+        <v>1483.398778386723</v>
       </c>
       <c r="O15" t="n">
-        <v>2336.618278868459</v>
+        <v>2021.340137914921</v>
       </c>
       <c r="P15" t="n">
         <v>2436.0824370069</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>517.5678282019981</v>
+        <v>469.0246737158594</v>
       </c>
       <c r="C16" t="n">
-        <v>436.8025107418317</v>
+        <v>388.2593562556929</v>
       </c>
       <c r="D16" t="n">
-        <v>374.8567367972365</v>
+        <v>326.3135823110977</v>
       </c>
       <c r="E16" t="n">
-        <v>315.114508682584</v>
+        <v>266.571354196445</v>
       </c>
       <c r="F16" t="n">
-        <v>256.3954266524141</v>
+        <v>256.3954266524144</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9181215958876</v>
+        <v>175.9181215958877</v>
       </c>
       <c r="H16" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I16" t="n">
         <v>71.88334228526003</v>
@@ -5437,13 +5437,13 @@
         <v>137.9171519413134</v>
       </c>
       <c r="K16" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243582</v>
       </c>
       <c r="L16" t="n">
-        <v>585.903165714185</v>
+        <v>585.9031657141848</v>
       </c>
       <c r="M16" t="n">
-        <v>871.2399800945348</v>
+        <v>871.2399800945345</v>
       </c>
       <c r="N16" t="n">
         <v>1157.281524847586</v>
@@ -5455,31 +5455,31 @@
         <v>1619.032921438428</v>
       </c>
       <c r="Q16" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R16" t="n">
         <v>1661.31067884179</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.321068460391</v>
+        <v>1541.32106846039</v>
       </c>
       <c r="T16" t="n">
-        <v>1403.686164565626</v>
+        <v>1403.686164565625</v>
       </c>
       <c r="U16" t="n">
-        <v>1202.702599491793</v>
+        <v>1202.702599491792</v>
       </c>
       <c r="V16" t="n">
-        <v>1036.188976753647</v>
+        <v>1036.188976753645</v>
       </c>
       <c r="W16" t="n">
-        <v>834.9426721844269</v>
+        <v>834.9426721844252</v>
       </c>
       <c r="X16" t="n">
-        <v>743.6671412402869</v>
+        <v>695.1239867541483</v>
       </c>
       <c r="Y16" t="n">
-        <v>611.0454275644972</v>
+        <v>562.5022730783586</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1838.280930959697</v>
+        <v>1838.280930959699</v>
       </c>
       <c r="C17" t="n">
-        <v>1557.489279487026</v>
+        <v>1557.489279487028</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348018</v>
       </c>
       <c r="E17" t="n">
-        <v>989.7770592175127</v>
+        <v>989.7770592175139</v>
       </c>
       <c r="F17" t="n">
-        <v>666.9620198956454</v>
+        <v>666.9620198956468</v>
       </c>
       <c r="G17" t="n">
-        <v>337.9529754427123</v>
+        <v>337.9529754427124</v>
       </c>
       <c r="H17" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I17" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="J17" t="n">
-        <v>252.8595824424917</v>
+        <v>252.8595824424916</v>
       </c>
       <c r="K17" t="n">
-        <v>644.840857435254</v>
+        <v>644.8408574352538</v>
       </c>
       <c r="L17" t="n">
         <v>1183.404917961335</v>
       </c>
       <c r="M17" t="n">
-        <v>1799.267750954547</v>
+        <v>1799.267750954546</v>
       </c>
       <c r="N17" t="n">
-        <v>2410.463890904545</v>
+        <v>2410.463890904544</v>
       </c>
       <c r="O17" t="n">
-        <v>2942.41143654664</v>
+        <v>2942.411436546642</v>
       </c>
       <c r="P17" t="n">
-        <v>3358.741976803206</v>
+        <v>3358.741976803208</v>
       </c>
       <c r="Q17" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="R17" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263003</v>
       </c>
       <c r="S17" t="n">
-        <v>3524.023571847628</v>
+        <v>3524.02357184763</v>
       </c>
       <c r="T17" t="n">
-        <v>3396.99128457537</v>
+        <v>3396.991284575372</v>
       </c>
       <c r="U17" t="n">
-        <v>3231.463076535693</v>
+        <v>3231.463076535695</v>
       </c>
       <c r="V17" t="n">
-        <v>2988.571054659863</v>
+        <v>2988.571054659865</v>
       </c>
       <c r="W17" t="n">
-        <v>2723.973264857489</v>
+        <v>2723.973264857491</v>
       </c>
       <c r="X17" t="n">
-        <v>2438.67837206415</v>
+        <v>2438.678372064152</v>
       </c>
       <c r="Y17" t="n">
-        <v>2136.709905556078</v>
+        <v>2136.70990555608</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>119.4853455286174</v>
       </c>
       <c r="I18" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="J18" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="K18" t="n">
-        <v>393.5104211629482</v>
+        <v>161.6303497905545</v>
       </c>
       <c r="L18" t="n">
-        <v>520.2501743971781</v>
+        <v>655.5020448752089</v>
       </c>
       <c r="M18" t="n">
-        <v>1148.554369778328</v>
+        <v>822.7582271438591</v>
       </c>
       <c r="N18" t="n">
-        <v>1798.67691934026</v>
+        <v>1483.398778386723</v>
       </c>
       <c r="O18" t="n">
-        <v>2336.618278868459</v>
+        <v>2021.340137914921</v>
       </c>
       <c r="P18" t="n">
         <v>2436.0824370069</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.1899151668198</v>
+        <v>469.0246737158584</v>
       </c>
       <c r="C19" t="n">
-        <v>432.4245977066534</v>
+        <v>388.259356255692</v>
       </c>
       <c r="D19" t="n">
-        <v>370.4788237620581</v>
+        <v>326.3135823110967</v>
       </c>
       <c r="E19" t="n">
-        <v>310.7365956474055</v>
+        <v>266.571354196444</v>
       </c>
       <c r="F19" t="n">
-        <v>252.0175136172357</v>
+        <v>207.8522721662741</v>
       </c>
       <c r="G19" t="n">
-        <v>171.5402085607091</v>
+        <v>127.3749671097475</v>
       </c>
       <c r="H19" t="n">
         <v>109.4669225250462</v>
       </c>
       <c r="I19" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526007</v>
       </c>
       <c r="J19" t="n">
-        <v>137.9171519413135</v>
+        <v>137.9171519413134</v>
       </c>
       <c r="K19" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243583</v>
       </c>
       <c r="L19" t="n">
-        <v>585.9031657141851</v>
+        <v>585.9031657141846</v>
       </c>
       <c r="M19" t="n">
-        <v>871.2399800945349</v>
+        <v>871.2399800945345</v>
       </c>
       <c r="N19" t="n">
         <v>1157.281524847586</v>
       </c>
       <c r="O19" t="n">
-        <v>1412.067750491543</v>
+        <v>1412.067750491542</v>
       </c>
       <c r="P19" t="n">
-        <v>1619.032921438429</v>
+        <v>1619.032921438428</v>
       </c>
       <c r="Q19" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R19" t="n">
-        <v>1705.47592029275</v>
+        <v>1661.310678841789</v>
       </c>
       <c r="S19" t="n">
-        <v>1585.486309911351</v>
+        <v>1541.32106846039</v>
       </c>
       <c r="T19" t="n">
-        <v>1447.851406016586</v>
+        <v>1403.686164565625</v>
       </c>
       <c r="U19" t="n">
-        <v>1246.867840942752</v>
+        <v>1202.702599491791</v>
       </c>
       <c r="V19" t="n">
-        <v>1080.354218204606</v>
+        <v>1036.188976753645</v>
       </c>
       <c r="W19" t="n">
-        <v>879.1079136353856</v>
+        <v>834.9426721844243</v>
       </c>
       <c r="X19" t="n">
-        <v>739.2892282051087</v>
+        <v>695.1239867541474</v>
       </c>
       <c r="Y19" t="n">
-        <v>606.667514529319</v>
+        <v>562.5022730783577</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>666.9620198956454</v>
       </c>
       <c r="G20" t="n">
-        <v>337.9529754427123</v>
+        <v>337.9529754427122</v>
       </c>
       <c r="H20" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I20" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="J20" t="n">
-        <v>252.8595824424915</v>
+        <v>252.8595824424916</v>
       </c>
       <c r="K20" t="n">
         <v>644.8408574352538</v>
@@ -5762,7 +5762,7 @@
         <v>1799.267750954547</v>
       </c>
       <c r="N20" t="n">
-        <v>2410.463890904544</v>
+        <v>2410.463890904545</v>
       </c>
       <c r="O20" t="n">
         <v>2942.41143654664</v>
@@ -5780,19 +5780,19 @@
         <v>3524.023571847628</v>
       </c>
       <c r="T20" t="n">
-        <v>3396.991284575369</v>
+        <v>3396.99128457537</v>
       </c>
       <c r="U20" t="n">
-        <v>3231.463076535692</v>
+        <v>3231.463076535693</v>
       </c>
       <c r="V20" t="n">
-        <v>2988.571054659862</v>
+        <v>2988.571054659863</v>
       </c>
       <c r="W20" t="n">
-        <v>2723.973264857488</v>
+        <v>2723.973264857489</v>
       </c>
       <c r="X20" t="n">
-        <v>2438.678372064149</v>
+        <v>2438.67837206415</v>
       </c>
       <c r="Y20" t="n">
         <v>2136.709905556078</v>
@@ -5826,16 +5826,16 @@
         <v>119.4853455286174</v>
       </c>
       <c r="I21" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="J21" t="n">
-        <v>71.88334228526003</v>
+        <v>185.9781714285405</v>
       </c>
       <c r="K21" t="n">
-        <v>393.5104211629481</v>
+        <v>507.6052503062286</v>
       </c>
       <c r="L21" t="n">
-        <v>520.2501743971779</v>
+        <v>634.3450035404585</v>
       </c>
       <c r="M21" t="n">
         <v>822.7582271438591</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>469.0246737158605</v>
+        <v>469.0246737158585</v>
       </c>
       <c r="C22" t="n">
-        <v>388.2593562556941</v>
+        <v>388.2593562556921</v>
       </c>
       <c r="D22" t="n">
-        <v>326.3135823110989</v>
+        <v>326.3135823110968</v>
       </c>
       <c r="E22" t="n">
-        <v>266.5713541964464</v>
+        <v>266.5713541964441</v>
       </c>
       <c r="F22" t="n">
-        <v>207.8522721662765</v>
+        <v>207.8522721662742</v>
       </c>
       <c r="G22" t="n">
-        <v>127.3749671097496</v>
+        <v>127.3749671097476</v>
       </c>
       <c r="H22" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I22" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="J22" t="n">
-        <v>137.9171519413132</v>
+        <v>137.9171519413133</v>
       </c>
       <c r="K22" t="n">
         <v>320.6756181243582</v>
@@ -5917,7 +5917,7 @@
         <v>585.9031657141848</v>
       </c>
       <c r="M22" t="n">
-        <v>871.2399800945346</v>
+        <v>871.2399800945345</v>
       </c>
       <c r="N22" t="n">
         <v>1157.281524847586</v>
@@ -5929,31 +5929,31 @@
         <v>1619.032921438428</v>
       </c>
       <c r="Q22" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R22" t="n">
-        <v>1661.31067884179</v>
+        <v>1661.310678841789</v>
       </c>
       <c r="S22" t="n">
-        <v>1541.321068460391</v>
+        <v>1541.32106846039</v>
       </c>
       <c r="T22" t="n">
-        <v>1403.686164565626</v>
+        <v>1403.686164565624</v>
       </c>
       <c r="U22" t="n">
-        <v>1202.702599491793</v>
+        <v>1202.702599491791</v>
       </c>
       <c r="V22" t="n">
-        <v>1036.188976753646</v>
+        <v>1036.188976753645</v>
       </c>
       <c r="W22" t="n">
-        <v>834.9426721844262</v>
+        <v>834.9426721844243</v>
       </c>
       <c r="X22" t="n">
-        <v>695.1239867541493</v>
+        <v>695.1239867541474</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.5022730783596</v>
+        <v>562.5022730783578</v>
       </c>
     </row>
     <row r="23">
@@ -5963,58 +5963,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1838.280930959697</v>
+        <v>1838.280930959698</v>
       </c>
       <c r="C23" t="n">
-        <v>1557.489279487026</v>
+        <v>1557.489279487027</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348017</v>
       </c>
       <c r="E23" t="n">
-        <v>989.7770592175125</v>
+        <v>989.7770592175127</v>
       </c>
       <c r="F23" t="n">
-        <v>666.9620198956454</v>
+        <v>666.9620198956457</v>
       </c>
       <c r="G23" t="n">
-        <v>337.9529754427123</v>
+        <v>337.9529754427125</v>
       </c>
       <c r="H23" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I23" t="n">
         <v>71.88334228526003</v>
       </c>
       <c r="J23" t="n">
-        <v>252.859582442491</v>
+        <v>252.8595824424915</v>
       </c>
       <c r="K23" t="n">
-        <v>644.8408574352535</v>
+        <v>644.8408574352538</v>
       </c>
       <c r="L23" t="n">
-        <v>1183.404917961334</v>
+        <v>1183.404917961335</v>
       </c>
       <c r="M23" t="n">
-        <v>1799.267750954546</v>
+        <v>1799.267750954547</v>
       </c>
       <c r="N23" t="n">
         <v>2410.463890904544</v>
       </c>
       <c r="O23" t="n">
-        <v>2942.411436546639</v>
+        <v>2942.41143654664</v>
       </c>
       <c r="P23" t="n">
-        <v>3358.741976803205</v>
+        <v>3358.741976803206</v>
       </c>
       <c r="Q23" t="n">
-        <v>3594.167114263001</v>
+        <v>3594.167114263002</v>
       </c>
       <c r="R23" t="n">
-        <v>3594.167114263001</v>
+        <v>3594.167114263002</v>
       </c>
       <c r="S23" t="n">
-        <v>3524.023571847627</v>
+        <v>3524.023571847628</v>
       </c>
       <c r="T23" t="n">
         <v>3396.991284575369</v>
@@ -6026,13 +6026,13 @@
         <v>2988.571054659862</v>
       </c>
       <c r="W23" t="n">
-        <v>2723.973264857488</v>
+        <v>2723.97326485749</v>
       </c>
       <c r="X23" t="n">
-        <v>2438.678372064149</v>
+        <v>2438.678372064151</v>
       </c>
       <c r="Y23" t="n">
-        <v>2136.709905556078</v>
+        <v>2136.709905556079</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>71.88334228526003</v>
       </c>
       <c r="J24" t="n">
-        <v>185.9781714285405</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="K24" t="n">
-        <v>507.6052503062286</v>
+        <v>393.5104211629481</v>
       </c>
       <c r="L24" t="n">
-        <v>634.3450035404585</v>
+        <v>887.3821162476025</v>
       </c>
       <c r="M24" t="n">
-        <v>1030.73474200235</v>
+        <v>1515.686311628753</v>
       </c>
       <c r="N24" t="n">
-        <v>1691.375293245213</v>
+        <v>1873.322474470685</v>
       </c>
       <c r="O24" t="n">
-        <v>2229.316652773412</v>
+        <v>2021.340137914921</v>
       </c>
       <c r="P24" t="n">
-        <v>2644.058951865391</v>
+        <v>2436.0824370069</v>
       </c>
       <c r="Q24" t="n">
         <v>2660.628911095451</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>469.0246737158599</v>
+        <v>469.0246737158587</v>
       </c>
       <c r="C25" t="n">
-        <v>388.2593562556935</v>
+        <v>388.2593562556923</v>
       </c>
       <c r="D25" t="n">
-        <v>326.3135823110983</v>
+        <v>326.313582311097</v>
       </c>
       <c r="E25" t="n">
-        <v>266.5713541964458</v>
+        <v>266.5713541964444</v>
       </c>
       <c r="F25" t="n">
-        <v>207.852272166276</v>
+        <v>256.3954266524144</v>
       </c>
       <c r="G25" t="n">
-        <v>127.3749671097494</v>
+        <v>175.9181215958877</v>
       </c>
       <c r="H25" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I25" t="n">
         <v>71.88334228526003</v>
       </c>
       <c r="J25" t="n">
-        <v>137.9171519413134</v>
+        <v>137.9171519413133</v>
       </c>
       <c r="K25" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243582</v>
       </c>
       <c r="L25" t="n">
-        <v>585.903165714185</v>
+        <v>585.9031657141848</v>
       </c>
       <c r="M25" t="n">
-        <v>871.2399800945348</v>
+        <v>871.2399800945344</v>
       </c>
       <c r="N25" t="n">
         <v>1157.281524847586</v>
@@ -6166,31 +6166,31 @@
         <v>1619.032921438428</v>
       </c>
       <c r="Q25" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R25" t="n">
-        <v>1661.31067884179</v>
+        <v>1661.310678841789</v>
       </c>
       <c r="S25" t="n">
-        <v>1541.321068460391</v>
+        <v>1541.32106846039</v>
       </c>
       <c r="T25" t="n">
-        <v>1403.686164565626</v>
+        <v>1403.686164565625</v>
       </c>
       <c r="U25" t="n">
-        <v>1202.702599491792</v>
+        <v>1202.702599491791</v>
       </c>
       <c r="V25" t="n">
-        <v>1036.188976753646</v>
+        <v>1036.188976753645</v>
       </c>
       <c r="W25" t="n">
-        <v>834.942672184426</v>
+        <v>834.9426721844247</v>
       </c>
       <c r="X25" t="n">
-        <v>695.1239867541492</v>
+        <v>695.1239867541478</v>
       </c>
       <c r="Y25" t="n">
-        <v>562.5022730783592</v>
+        <v>562.502273078358</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1838.280930959697</v>
+        <v>1838.280930959698</v>
       </c>
       <c r="C26" t="n">
-        <v>1557.489279487026</v>
+        <v>1557.489279487027</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348017</v>
       </c>
       <c r="E26" t="n">
-        <v>989.7770592175121</v>
+        <v>989.7770592175129</v>
       </c>
       <c r="F26" t="n">
-        <v>666.9620198956451</v>
+        <v>666.9620198956455</v>
       </c>
       <c r="G26" t="n">
         <v>337.9529754427123</v>
@@ -6221,22 +6221,22 @@
         <v>106.9572181940503</v>
       </c>
       <c r="I26" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J26" t="n">
-        <v>252.859582442492</v>
+        <v>252.8595824424915</v>
       </c>
       <c r="K26" t="n">
-        <v>644.8408574352543</v>
+        <v>644.8408574352538</v>
       </c>
       <c r="L26" t="n">
         <v>1183.404917961335</v>
       </c>
       <c r="M26" t="n">
-        <v>1799.267750954547</v>
+        <v>1799.267750954546</v>
       </c>
       <c r="N26" t="n">
-        <v>2410.463890904545</v>
+        <v>2410.463890904544</v>
       </c>
       <c r="O26" t="n">
         <v>2942.41143654664</v>
@@ -6251,25 +6251,25 @@
         <v>3594.167114263002</v>
       </c>
       <c r="S26" t="n">
-        <v>3524.023571847628</v>
+        <v>3524.023571847629</v>
       </c>
       <c r="T26" t="n">
         <v>3396.99128457537</v>
       </c>
       <c r="U26" t="n">
-        <v>3231.463076535693</v>
+        <v>3231.463076535694</v>
       </c>
       <c r="V26" t="n">
-        <v>2988.571054659863</v>
+        <v>2988.571054659864</v>
       </c>
       <c r="W26" t="n">
-        <v>2723.973264857489</v>
+        <v>2723.97326485749</v>
       </c>
       <c r="X26" t="n">
-        <v>2438.678372064149</v>
+        <v>2438.678372064151</v>
       </c>
       <c r="Y26" t="n">
-        <v>2136.709905556078</v>
+        <v>2136.709905556079</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>119.4853455286174</v>
       </c>
       <c r="I27" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J27" t="n">
-        <v>185.9781714285405</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="K27" t="n">
-        <v>507.6052503062286</v>
+        <v>131.6898365204954</v>
       </c>
       <c r="L27" t="n">
-        <v>669.0029823628272</v>
+        <v>258.4295897547252</v>
       </c>
       <c r="M27" t="n">
-        <v>1297.307177743977</v>
+        <v>886.7337851358752</v>
       </c>
       <c r="N27" t="n">
-        <v>1483.398778386723</v>
+        <v>1547.374336378739</v>
       </c>
       <c r="O27" t="n">
         <v>2021.340137914921</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>469.0246737158604</v>
+        <v>469.0246737158599</v>
       </c>
       <c r="C28" t="n">
-        <v>388.259356255694</v>
+        <v>388.2593562556935</v>
       </c>
       <c r="D28" t="n">
-        <v>326.3135823110988</v>
+        <v>326.3135823110983</v>
       </c>
       <c r="E28" t="n">
-        <v>266.5713541964462</v>
+        <v>266.5713541964457</v>
       </c>
       <c r="F28" t="n">
-        <v>207.8522721662764</v>
+        <v>207.8522721662758</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9181215958876</v>
+        <v>127.3749671097488</v>
       </c>
       <c r="H28" t="n">
-        <v>109.4669225250462</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="I28" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J28" t="n">
-        <v>137.9171519413134</v>
+        <v>137.9171519413133</v>
       </c>
       <c r="K28" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243583</v>
       </c>
       <c r="L28" t="n">
-        <v>585.903165714185</v>
+        <v>585.9031657141849</v>
       </c>
       <c r="M28" t="n">
-        <v>871.2399800945348</v>
+        <v>871.2399800945346</v>
       </c>
       <c r="N28" t="n">
         <v>1157.281524847586</v>
       </c>
       <c r="O28" t="n">
-        <v>1412.067750491543</v>
+        <v>1412.067750491542</v>
       </c>
       <c r="P28" t="n">
         <v>1619.032921438428</v>
@@ -6421,13 +6421,13 @@
         <v>1036.188976753646</v>
       </c>
       <c r="W28" t="n">
-        <v>834.942672184426</v>
+        <v>834.9426721844256</v>
       </c>
       <c r="X28" t="n">
-        <v>695.1239867541492</v>
+        <v>695.1239867541489</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.5022730783596</v>
+        <v>562.5022730783591</v>
       </c>
     </row>
     <row r="29">
@@ -6446,25 +6446,25 @@
         <v>1287.394446348016</v>
       </c>
       <c r="E29" t="n">
-        <v>989.7770592175125</v>
+        <v>989.7770592175121</v>
       </c>
       <c r="F29" t="n">
-        <v>666.9620198956454</v>
+        <v>666.9620198956452</v>
       </c>
       <c r="G29" t="n">
         <v>337.9529754427123</v>
       </c>
       <c r="H29" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I29" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J29" t="n">
-        <v>252.8595824424916</v>
+        <v>252.8595824424915</v>
       </c>
       <c r="K29" t="n">
-        <v>644.8408574352538</v>
+        <v>644.8408574352537</v>
       </c>
       <c r="L29" t="n">
         <v>1183.404917961335</v>
@@ -6476,13 +6476,13 @@
         <v>2410.463890904544</v>
       </c>
       <c r="O29" t="n">
-        <v>2942.41143654664</v>
+        <v>2942.411436546639</v>
       </c>
       <c r="P29" t="n">
-        <v>3358.741976803206</v>
+        <v>3358.741976803205</v>
       </c>
       <c r="Q29" t="n">
-        <v>3594.167114263002</v>
+        <v>3594.167114263001</v>
       </c>
       <c r="R29" t="n">
         <v>3594.167114263002</v>
@@ -6491,7 +6491,7 @@
         <v>3524.023571847628</v>
       </c>
       <c r="T29" t="n">
-        <v>3396.99128457537</v>
+        <v>3396.991284575369</v>
       </c>
       <c r="U29" t="n">
         <v>3231.463076535693</v>
@@ -6537,25 +6537,25 @@
         <v>119.4853455286174</v>
       </c>
       <c r="I30" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J30" t="n">
-        <v>185.9781714285405</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="K30" t="n">
-        <v>507.6052503062286</v>
+        <v>131.6898365204954</v>
       </c>
       <c r="L30" t="n">
-        <v>1001.476945390883</v>
+        <v>625.5615316051498</v>
       </c>
       <c r="M30" t="n">
-        <v>1612.585318697515</v>
+        <v>822.7582271438591</v>
       </c>
       <c r="N30" t="n">
-        <v>1798.676919340261</v>
+        <v>1483.398778386723</v>
       </c>
       <c r="O30" t="n">
-        <v>2336.618278868459</v>
+        <v>2021.340137914921</v>
       </c>
       <c r="P30" t="n">
         <v>2436.0824370069</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.1899151668204</v>
+        <v>469.0246737158601</v>
       </c>
       <c r="C31" t="n">
-        <v>432.4245977066539</v>
+        <v>388.2593562556937</v>
       </c>
       <c r="D31" t="n">
-        <v>370.4788237620587</v>
+        <v>326.3135823110985</v>
       </c>
       <c r="E31" t="n">
-        <v>310.7365956474061</v>
+        <v>266.5713541964459</v>
       </c>
       <c r="F31" t="n">
-        <v>252.0175136172363</v>
+        <v>207.8522721662761</v>
       </c>
       <c r="G31" t="n">
-        <v>171.5402085607097</v>
+        <v>127.3749671097494</v>
       </c>
       <c r="H31" t="n">
-        <v>105.0890094898681</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="I31" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J31" t="n">
         <v>137.9171519413134</v>
       </c>
       <c r="K31" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243583</v>
       </c>
       <c r="L31" t="n">
-        <v>585.903165714185</v>
+        <v>585.9031657141849</v>
       </c>
       <c r="M31" t="n">
-        <v>871.2399800945348</v>
+        <v>871.2399800945346</v>
       </c>
       <c r="N31" t="n">
         <v>1157.281524847586</v>
@@ -6637,34 +6637,34 @@
         <v>1412.067750491542</v>
       </c>
       <c r="P31" t="n">
-        <v>1619.032921438429</v>
+        <v>1619.032921438428</v>
       </c>
       <c r="Q31" t="n">
         <v>1705.47592029275</v>
       </c>
       <c r="R31" t="n">
-        <v>1705.47592029275</v>
+        <v>1661.31067884179</v>
       </c>
       <c r="S31" t="n">
-        <v>1585.48630991135</v>
+        <v>1541.321068460391</v>
       </c>
       <c r="T31" t="n">
-        <v>1447.851406016586</v>
+        <v>1403.686164565626</v>
       </c>
       <c r="U31" t="n">
-        <v>1246.867840942753</v>
+        <v>1202.702599491792</v>
       </c>
       <c r="V31" t="n">
-        <v>1080.354218204606</v>
+        <v>1036.188976753646</v>
       </c>
       <c r="W31" t="n">
-        <v>879.1079136353861</v>
+        <v>834.9426721844259</v>
       </c>
       <c r="X31" t="n">
-        <v>739.2892282051093</v>
+        <v>695.1239867541491</v>
       </c>
       <c r="Y31" t="n">
-        <v>606.6675145293195</v>
+        <v>562.5022730783593</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1838.280930959697</v>
+        <v>1838.280930959698</v>
       </c>
       <c r="C32" t="n">
-        <v>1557.489279487026</v>
+        <v>1557.489279487027</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.394446348016</v>
+        <v>1287.394446348017</v>
       </c>
       <c r="E32" t="n">
-        <v>989.7770592175123</v>
+        <v>989.7770592175127</v>
       </c>
       <c r="F32" t="n">
-        <v>666.9620198956452</v>
+        <v>666.9620198956457</v>
       </c>
       <c r="G32" t="n">
-        <v>337.9529754427123</v>
+        <v>337.9529754427124</v>
       </c>
       <c r="H32" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I32" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J32" t="n">
-        <v>252.8595824424916</v>
+        <v>252.8595824424915</v>
       </c>
       <c r="K32" t="n">
         <v>644.8408574352538</v>
@@ -6731,19 +6731,19 @@
         <v>3396.99128457537</v>
       </c>
       <c r="U32" t="n">
-        <v>3231.463076535693</v>
+        <v>3231.463076535694</v>
       </c>
       <c r="V32" t="n">
-        <v>2988.571054659863</v>
+        <v>2988.571054659864</v>
       </c>
       <c r="W32" t="n">
-        <v>2723.973264857489</v>
+        <v>2723.97326485749</v>
       </c>
       <c r="X32" t="n">
-        <v>2438.67837206415</v>
+        <v>2438.678372064151</v>
       </c>
       <c r="Y32" t="n">
-        <v>2136.709905556078</v>
+        <v>2136.709905556079</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>119.4853455286174</v>
       </c>
       <c r="I33" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J33" t="n">
         <v>185.9781714285405</v>
       </c>
       <c r="K33" t="n">
-        <v>245.7846656637759</v>
+        <v>476.9084907440923</v>
       </c>
       <c r="L33" t="n">
-        <v>739.6563607484302</v>
+        <v>970.7801858287467</v>
       </c>
       <c r="M33" t="n">
-        <v>1367.96055612958</v>
+        <v>1138.036368097397</v>
       </c>
       <c r="N33" t="n">
-        <v>1691.375293245213</v>
+        <v>1798.676919340261</v>
       </c>
       <c r="O33" t="n">
-        <v>2229.316652773412</v>
+        <v>2336.618278868459</v>
       </c>
       <c r="P33" t="n">
-        <v>2644.058951865391</v>
+        <v>2436.0824370069</v>
       </c>
       <c r="Q33" t="n">
         <v>2660.628911095451</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>479.9842479622118</v>
+        <v>469.0246737158606</v>
       </c>
       <c r="C34" t="n">
-        <v>399.2189305020454</v>
+        <v>388.2593562556942</v>
       </c>
       <c r="D34" t="n">
-        <v>337.2731565574502</v>
+        <v>326.313582311099</v>
       </c>
       <c r="E34" t="n">
-        <v>277.5309284427976</v>
+        <v>266.5713541964464</v>
       </c>
       <c r="F34" t="n">
-        <v>218.8118464126278</v>
+        <v>207.8522721662765</v>
       </c>
       <c r="G34" t="n">
         <v>138.3345413561015</v>
       </c>
       <c r="H34" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="I34" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J34" t="n">
         <v>137.9171519413134</v>
       </c>
       <c r="K34" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243583</v>
       </c>
       <c r="L34" t="n">
-        <v>585.903165714185</v>
+        <v>585.9031657141849</v>
       </c>
       <c r="M34" t="n">
-        <v>871.2399800945349</v>
+        <v>871.2399800945345</v>
       </c>
       <c r="N34" t="n">
         <v>1157.281524847586</v>
@@ -6874,34 +6874,34 @@
         <v>1412.067750491542</v>
       </c>
       <c r="P34" t="n">
-        <v>1619.032921438429</v>
+        <v>1619.032921438428</v>
       </c>
       <c r="Q34" t="n">
-        <v>1705.47592029275</v>
+        <v>1705.475920292749</v>
       </c>
       <c r="R34" t="n">
-        <v>1672.270253088142</v>
+        <v>1661.31067884179</v>
       </c>
       <c r="S34" t="n">
-        <v>1552.280642706742</v>
+        <v>1541.321068460391</v>
       </c>
       <c r="T34" t="n">
-        <v>1414.645738811977</v>
+        <v>1403.686164565626</v>
       </c>
       <c r="U34" t="n">
-        <v>1213.662173738144</v>
+        <v>1202.702599491792</v>
       </c>
       <c r="V34" t="n">
-        <v>1047.148550999997</v>
+        <v>1036.188976753646</v>
       </c>
       <c r="W34" t="n">
-        <v>845.9022464307773</v>
+        <v>834.9426721844259</v>
       </c>
       <c r="X34" t="n">
-        <v>706.0835610005006</v>
+        <v>695.123986754149</v>
       </c>
       <c r="Y34" t="n">
-        <v>573.461847324711</v>
+        <v>562.5022730783597</v>
       </c>
     </row>
     <row r="35">
@@ -6920,25 +6920,25 @@
         <v>1287.394446348016</v>
       </c>
       <c r="E35" t="n">
-        <v>989.7770592175123</v>
+        <v>989.7770592175125</v>
       </c>
       <c r="F35" t="n">
         <v>666.9620198956454</v>
       </c>
       <c r="G35" t="n">
-        <v>337.9529754427121</v>
+        <v>337.9529754427122</v>
       </c>
       <c r="H35" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I35" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="J35" t="n">
-        <v>252.8595824424915</v>
+        <v>252.8595824424916</v>
       </c>
       <c r="K35" t="n">
-        <v>644.8408574352537</v>
+        <v>644.8408574352538</v>
       </c>
       <c r="L35" t="n">
         <v>1183.404917961335</v>
@@ -6950,10 +6950,10 @@
         <v>2410.463890904544</v>
       </c>
       <c r="O35" t="n">
-        <v>2942.411436546639</v>
+        <v>2942.41143654664</v>
       </c>
       <c r="P35" t="n">
-        <v>3358.741976803205</v>
+        <v>3358.741976803206</v>
       </c>
       <c r="Q35" t="n">
         <v>3594.167114263002</v>
@@ -6968,16 +6968,16 @@
         <v>3396.99128457537</v>
       </c>
       <c r="U35" t="n">
-        <v>3231.463076535692</v>
+        <v>3231.463076535693</v>
       </c>
       <c r="V35" t="n">
-        <v>2988.571054659862</v>
+        <v>2988.571054659863</v>
       </c>
       <c r="W35" t="n">
         <v>2723.973264857489</v>
       </c>
       <c r="X35" t="n">
-        <v>2438.678372064149</v>
+        <v>2438.67837206415</v>
       </c>
       <c r="Y35" t="n">
         <v>2136.709905556078</v>
@@ -7011,7 +7011,7 @@
         <v>119.4853455286174</v>
       </c>
       <c r="I36" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="J36" t="n">
         <v>185.9781714285405</v>
@@ -7020,19 +7020,19 @@
         <v>507.6052503062286</v>
       </c>
       <c r="L36" t="n">
-        <v>792.3542427051623</v>
+        <v>1001.476945390883</v>
       </c>
       <c r="M36" t="n">
-        <v>1420.658438086312</v>
+        <v>1629.781140772033</v>
       </c>
       <c r="N36" t="n">
-        <v>2081.298989329176</v>
+        <v>2290.421692014897</v>
       </c>
       <c r="O36" t="n">
-        <v>2229.316652773412</v>
+        <v>2438.439355459132</v>
       </c>
       <c r="P36" t="n">
-        <v>2644.058951865391</v>
+        <v>2537.903513597574</v>
       </c>
       <c r="Q36" t="n">
         <v>2660.628911095451</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.1899151668213</v>
+        <v>469.0246737158601</v>
       </c>
       <c r="C37" t="n">
-        <v>432.4245977066549</v>
+        <v>388.2593562556937</v>
       </c>
       <c r="D37" t="n">
-        <v>370.4788237620597</v>
+        <v>326.3135823110985</v>
       </c>
       <c r="E37" t="n">
-        <v>310.7365956474072</v>
+        <v>266.5713541964459</v>
       </c>
       <c r="F37" t="n">
-        <v>252.0175136172375</v>
+        <v>207.852272166276</v>
       </c>
       <c r="G37" t="n">
-        <v>171.5402085607111</v>
+        <v>127.3749671097494</v>
       </c>
       <c r="H37" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I37" t="n">
-        <v>71.88334228526003</v>
+        <v>71.88334228526004</v>
       </c>
       <c r="J37" t="n">
-        <v>137.9171519413135</v>
+        <v>137.9171519413134</v>
       </c>
       <c r="K37" t="n">
-        <v>320.6756181243582</v>
+        <v>320.6756181243586</v>
       </c>
       <c r="L37" t="n">
-        <v>585.9031657141849</v>
+        <v>585.9031657141852</v>
       </c>
       <c r="M37" t="n">
-        <v>871.2399800945348</v>
+        <v>871.2399800945349</v>
       </c>
       <c r="N37" t="n">
         <v>1157.281524847586</v>
       </c>
       <c r="O37" t="n">
-        <v>1412.067750491543</v>
+        <v>1412.067750491542</v>
       </c>
       <c r="P37" t="n">
-        <v>1619.032921438429</v>
+        <v>1619.032921438428</v>
       </c>
       <c r="Q37" t="n">
         <v>1705.47592029275</v>
       </c>
       <c r="R37" t="n">
-        <v>1705.47592029275</v>
+        <v>1661.31067884179</v>
       </c>
       <c r="S37" t="n">
-        <v>1585.486309911351</v>
+        <v>1541.321068460391</v>
       </c>
       <c r="T37" t="n">
-        <v>1447.851406016586</v>
+        <v>1403.686164565626</v>
       </c>
       <c r="U37" t="n">
-        <v>1246.867840942753</v>
+        <v>1202.702599491793</v>
       </c>
       <c r="V37" t="n">
-        <v>1080.354218204607</v>
+        <v>1036.188976753646</v>
       </c>
       <c r="W37" t="n">
-        <v>879.1079136353867</v>
+        <v>834.9426721844262</v>
       </c>
       <c r="X37" t="n">
-        <v>739.2892282051099</v>
+        <v>695.1239867541494</v>
       </c>
       <c r="Y37" t="n">
-        <v>606.6675145293203</v>
+        <v>562.5022730783593</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1838.280930959696</v>
+        <v>1838.280930959697</v>
       </c>
       <c r="C38" t="n">
         <v>1557.489279487026</v>
@@ -7157,16 +7157,16 @@
         <v>1287.394446348016</v>
       </c>
       <c r="E38" t="n">
-        <v>989.7770592175125</v>
+        <v>989.777059217512</v>
       </c>
       <c r="F38" t="n">
-        <v>666.9620198956454</v>
+        <v>666.962019895645</v>
       </c>
       <c r="G38" t="n">
-        <v>337.9529754427123</v>
+        <v>337.9529754427117</v>
       </c>
       <c r="H38" t="n">
-        <v>106.9572181940503</v>
+        <v>106.9572181940504</v>
       </c>
       <c r="I38" t="n">
         <v>71.88334228526003</v>
@@ -7175,10 +7175,10 @@
         <v>252.8595824424915</v>
       </c>
       <c r="K38" t="n">
-        <v>644.8408574352536</v>
+        <v>644.8408574352537</v>
       </c>
       <c r="L38" t="n">
-        <v>1183.404917961334</v>
+        <v>1183.404917961335</v>
       </c>
       <c r="M38" t="n">
         <v>1799.267750954546</v>
@@ -7199,7 +7199,7 @@
         <v>3594.167114263002</v>
       </c>
       <c r="S38" t="n">
-        <v>3524.023571847628</v>
+        <v>3524.023571847627</v>
       </c>
       <c r="T38" t="n">
         <v>3396.991284575369</v>
@@ -7251,25 +7251,25 @@
         <v>71.88334228526003</v>
       </c>
       <c r="J39" t="n">
-        <v>71.88334228526003</v>
+        <v>185.9781714285405</v>
       </c>
       <c r="K39" t="n">
-        <v>382.9924194820171</v>
+        <v>507.6052503062286</v>
       </c>
       <c r="L39" t="n">
-        <v>509.7321727162469</v>
+        <v>1001.476945390883</v>
       </c>
       <c r="M39" t="n">
-        <v>1138.036368097397</v>
+        <v>1168.733127659533</v>
       </c>
       <c r="N39" t="n">
-        <v>1798.676919340261</v>
+        <v>1829.373678902397</v>
       </c>
       <c r="O39" t="n">
-        <v>2336.618278868459</v>
+        <v>2229.316652773412</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.0824370069</v>
+        <v>2644.058951865391</v>
       </c>
       <c r="Q39" t="n">
         <v>2660.628911095451</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>469.0246737158607</v>
+        <v>469.0246737158604</v>
       </c>
       <c r="C40" t="n">
-        <v>388.2593562556943</v>
+        <v>388.259356255694</v>
       </c>
       <c r="D40" t="n">
-        <v>326.3135823110991</v>
+        <v>326.3135823110988</v>
       </c>
       <c r="E40" t="n">
-        <v>266.5713541964466</v>
+        <v>266.5713541964462</v>
       </c>
       <c r="F40" t="n">
-        <v>207.8522721662767</v>
+        <v>256.3954266524142</v>
       </c>
       <c r="G40" t="n">
-        <v>127.3749671097502</v>
+        <v>175.9181215958876</v>
       </c>
       <c r="H40" t="n">
-        <v>109.4669225250461</v>
+        <v>109.4669225250462</v>
       </c>
       <c r="I40" t="n">
         <v>71.88334228526003</v>
@@ -7333,7 +7333,7 @@
         <v>137.9171519413134</v>
       </c>
       <c r="K40" t="n">
-        <v>320.6756181243584</v>
+        <v>320.6756181243583</v>
       </c>
       <c r="L40" t="n">
         <v>585.9031657141852</v>
@@ -7345,7 +7345,7 @@
         <v>1157.281524847586</v>
       </c>
       <c r="O40" t="n">
-        <v>1412.067750491543</v>
+        <v>1412.067750491542</v>
       </c>
       <c r="P40" t="n">
         <v>1619.032921438428</v>
@@ -7369,13 +7369,13 @@
         <v>1036.188976753646</v>
       </c>
       <c r="W40" t="n">
-        <v>834.9426721844262</v>
+        <v>834.9426721844261</v>
       </c>
       <c r="X40" t="n">
-        <v>695.1239867541494</v>
+        <v>695.1239867541492</v>
       </c>
       <c r="Y40" t="n">
-        <v>562.5022730783598</v>
+        <v>562.5022730783596</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1681.406628101107</v>
+        <v>1317.934328154015</v>
       </c>
       <c r="C41" t="n">
-        <v>1335.571651277726</v>
+        <v>1317.934328154015</v>
       </c>
       <c r="D41" t="n">
-        <v>1335.571651277726</v>
+        <v>982.7961696642943</v>
       </c>
       <c r="E41" t="n">
-        <v>972.9109387965117</v>
+        <v>853.7940767614807</v>
       </c>
       <c r="F41" t="n">
-        <v>585.0525741239344</v>
+        <v>465.9357120889034</v>
       </c>
       <c r="G41" t="n">
-        <v>468.0396261441327</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="H41" t="n">
-        <v>172.0005435447606</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="I41" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J41" t="n">
-        <v>252.8595824424916</v>
+        <v>252.8595824424913</v>
       </c>
       <c r="K41" t="n">
         <v>644.8408574352538</v>
@@ -7418,10 +7418,10 @@
         <v>1183.404917961335</v>
       </c>
       <c r="M41" t="n">
-        <v>1799.267750954547</v>
+        <v>1799.267750954546</v>
       </c>
       <c r="N41" t="n">
-        <v>2410.463890904545</v>
+        <v>2410.463890904544</v>
       </c>
       <c r="O41" t="n">
         <v>2942.41143654664</v>
@@ -7476,31 +7476,31 @@
         <v>504.9026376407412</v>
       </c>
       <c r="F42" t="n">
-        <v>358.3680796676262</v>
+        <v>358.3680796676261</v>
       </c>
       <c r="G42" t="n">
-        <v>220.8773891171313</v>
+        <v>220.8773891171312</v>
       </c>
       <c r="H42" t="n">
         <v>119.4853455286174</v>
       </c>
       <c r="I42" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J42" t="n">
         <v>185.9781714285405</v>
       </c>
       <c r="K42" t="n">
-        <v>507.6052503062286</v>
+        <v>507.6052503062288</v>
       </c>
       <c r="L42" t="n">
-        <v>1001.476945390883</v>
+        <v>634.3450035404586</v>
       </c>
       <c r="M42" t="n">
-        <v>1297.307177743977</v>
+        <v>1262.649198921609</v>
       </c>
       <c r="N42" t="n">
-        <v>1483.398778386723</v>
+        <v>1873.322474470685</v>
       </c>
       <c r="O42" t="n">
         <v>2021.340137914921</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>539.3794516562913</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="C43" t="n">
-        <v>393.5708088454146</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="D43" t="n">
-        <v>320.431303131503</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="E43" t="n">
-        <v>195.6457496661401</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="F43" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="G43" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="H43" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="I43" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J43" t="n">
-        <v>74.1681887650825</v>
+        <v>74.16818876508232</v>
       </c>
       <c r="K43" t="n">
-        <v>193.1776917718963</v>
+        <v>193.1776917718961</v>
       </c>
       <c r="L43" t="n">
-        <v>394.6562761854918</v>
+        <v>394.6562761854917</v>
       </c>
       <c r="M43" t="n">
-        <v>616.2441273896105</v>
+        <v>616.2441273896104</v>
       </c>
       <c r="N43" t="n">
-        <v>838.5367089664308</v>
+        <v>838.5367089664305</v>
       </c>
       <c r="O43" t="n">
         <v>1029.573971434156</v>
       </c>
       <c r="P43" t="n">
-        <v>1172.790179204811</v>
+        <v>1172.79017920481</v>
       </c>
       <c r="Q43" t="n">
         <v>1195.484214882901</v>
       </c>
       <c r="R43" t="n">
-        <v>1195.484214882901</v>
+        <v>1086.275648081231</v>
       </c>
       <c r="S43" t="n">
-        <v>1195.484214882901</v>
+        <v>901.2427123491213</v>
       </c>
       <c r="T43" t="n">
-        <v>1195.484214882901</v>
+        <v>698.5644831036462</v>
       </c>
       <c r="U43" t="n">
-        <v>929.4573244583573</v>
+        <v>432.5375926791025</v>
       </c>
       <c r="V43" t="n">
-        <v>697.9003763695007</v>
+        <v>432.5375926791025</v>
       </c>
       <c r="W43" t="n">
-        <v>697.9003763695007</v>
+        <v>432.5375926791025</v>
       </c>
       <c r="X43" t="n">
-        <v>697.9003763695007</v>
+        <v>227.6755818981154</v>
       </c>
       <c r="Y43" t="n">
-        <v>697.9003763695007</v>
+        <v>227.6755818981154</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1740.581474167371</v>
+        <v>1681.406628101106</v>
       </c>
       <c r="C44" t="n">
-        <v>1394.74649734399</v>
+        <v>1335.571651277725</v>
       </c>
       <c r="D44" t="n">
-        <v>1059.608338854269</v>
+        <v>1335.571651277725</v>
       </c>
       <c r="E44" t="n">
-        <v>855.89799081671</v>
+        <v>972.9109387965109</v>
       </c>
       <c r="F44" t="n">
-        <v>468.0396261441329</v>
+        <v>585.0525741239339</v>
       </c>
       <c r="G44" t="n">
-        <v>468.0396261441329</v>
+        <v>468.0396261441331</v>
       </c>
       <c r="H44" t="n">
         <v>172.0005435447606</v>
       </c>
       <c r="I44" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J44" t="n">
-        <v>252.859582442492</v>
+        <v>252.8595824424917</v>
       </c>
       <c r="K44" t="n">
-        <v>644.8408574352543</v>
+        <v>644.840857435254</v>
       </c>
       <c r="L44" t="n">
-        <v>1183.404917961336</v>
+        <v>1183.404917961335</v>
       </c>
       <c r="M44" t="n">
-        <v>1799.267750954547</v>
+        <v>1799.267750954546</v>
       </c>
       <c r="N44" t="n">
-        <v>2410.463890904545</v>
+        <v>2410.463890904544</v>
       </c>
       <c r="O44" t="n">
         <v>2942.41143654664</v>
@@ -7676,22 +7676,22 @@
         <v>3458.980246496918</v>
       </c>
       <c r="T44" t="n">
-        <v>3458.980246496918</v>
+        <v>3266.904633873949</v>
       </c>
       <c r="U44" t="n">
-        <v>3458.980246496918</v>
+        <v>3036.333100483562</v>
       </c>
       <c r="V44" t="n">
-        <v>3151.044899270378</v>
+        <v>2728.397753257021</v>
       </c>
       <c r="W44" t="n">
-        <v>2821.403784117294</v>
+        <v>2398.756638103937</v>
       </c>
       <c r="X44" t="n">
-        <v>2471.065565973244</v>
+        <v>2048.418419959888</v>
       </c>
       <c r="Y44" t="n">
-        <v>2104.053774114463</v>
+        <v>1681.406628101106</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>119.4853455286174</v>
       </c>
       <c r="I45" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J45" t="n">
-        <v>71.88334228526004</v>
+        <v>185.9781714285405</v>
       </c>
       <c r="K45" t="n">
-        <v>131.6898365204954</v>
+        <v>245.7846656637759</v>
       </c>
       <c r="L45" t="n">
-        <v>402.4305466211997</v>
+        <v>739.6563607484302</v>
       </c>
       <c r="M45" t="n">
-        <v>1030.73474200235</v>
+        <v>1367.96055612958</v>
       </c>
       <c r="N45" t="n">
-        <v>1691.375293245213</v>
+        <v>2028.601107372444</v>
       </c>
       <c r="O45" t="n">
-        <v>2229.316652773412</v>
+        <v>2176.61877081668</v>
       </c>
       <c r="P45" t="n">
-        <v>2644.058951865391</v>
+        <v>2591.361069908659</v>
       </c>
       <c r="Q45" t="n">
         <v>2660.628911095451</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>469.4666378568051</v>
+        <v>254.1875929170154</v>
       </c>
       <c r="C46" t="n">
-        <v>323.6579950459284</v>
+        <v>254.1875929170154</v>
       </c>
       <c r="D46" t="n">
-        <v>196.6688957506229</v>
+        <v>174.5102478757564</v>
       </c>
       <c r="E46" t="n">
-        <v>71.88334228526004</v>
+        <v>174.5102478757564</v>
       </c>
       <c r="F46" t="n">
-        <v>71.88334228526004</v>
+        <v>174.5102478757564</v>
       </c>
       <c r="G46" t="n">
-        <v>71.88334228526004</v>
+        <v>174.5102478757564</v>
       </c>
       <c r="H46" t="n">
-        <v>71.88334228526004</v>
+        <v>174.5102478757564</v>
       </c>
       <c r="I46" t="n">
-        <v>71.88334228526004</v>
+        <v>71.88334228526003</v>
       </c>
       <c r="J46" t="n">
-        <v>74.16818876508232</v>
+        <v>74.16818876508231</v>
       </c>
       <c r="K46" t="n">
         <v>193.1776917718961</v>
@@ -7813,7 +7813,7 @@
         <v>394.6562761854916</v>
       </c>
       <c r="M46" t="n">
-        <v>616.2441273896104</v>
+        <v>616.2441273896102</v>
       </c>
       <c r="N46" t="n">
         <v>838.5367089664305</v>
@@ -7828,28 +7828,28 @@
         <v>1195.484214882901</v>
       </c>
       <c r="R46" t="n">
-        <v>1195.484214882901</v>
+        <v>1086.275648081231</v>
       </c>
       <c r="S46" t="n">
-        <v>1195.484214882901</v>
+        <v>1086.275648081231</v>
       </c>
       <c r="T46" t="n">
-        <v>1195.484214882901</v>
+        <v>883.5974188357557</v>
       </c>
       <c r="U46" t="n">
-        <v>929.4573244583573</v>
+        <v>617.570528411212</v>
       </c>
       <c r="V46" t="n">
-        <v>929.4573244583573</v>
+        <v>617.570528411212</v>
       </c>
       <c r="W46" t="n">
-        <v>663.167694538427</v>
+        <v>617.570528411212</v>
       </c>
       <c r="X46" t="n">
-        <v>663.167694538427</v>
+        <v>412.7085176302248</v>
       </c>
       <c r="Y46" t="n">
-        <v>469.4666378568051</v>
+        <v>412.7085176302248</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8073,10 +8073,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>10.84373317547904</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>145.4555119863379</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>44.39272279625052</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>10.84373317547904</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>150.2553615814639</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>376.4928020297418</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627471</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>10.84373317547902</v>
+        <v>10.84373317547904</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>30.24294269702936</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>468.7181302214002</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928329</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>10.84373317547904</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>136.6180509879101</v>
+        <v>21.37074882298023</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>10.84373317547904</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>231.4480365588294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>173.2773355547339</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,22 +9951,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>10.84373317547904</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>35.00805941653408</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>329.2405435272182</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>10.84373317547904</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>448.335546503012</v>
+        <v>30.24294269702946</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>233.4584091720368</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>138.7102388615026</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>159.6052920855594</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>107.2277154220376</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>10.84373317547904</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>253.840992890426</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>254.4700105320999</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.661214550451</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>129.8727778630748</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>428.8703786932631</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>10.84373317547904</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>145.4555119863379</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>53.23018379467831</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>48.05772294127735</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>48.05772294127734</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>48.05772294127789</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>48.05772294127546</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4.33413390482724</v>
+        <v>48.0577229412789</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.72358903645009</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>48.05772294127661</v>
+        <v>48.0577229412788</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.05772294127848</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>48.05772294127661</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>48.05772294127647</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>10.8499785038892</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>37.20774443738829</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>10.84997850388856</v>
       </c>
       <c r="I31" t="n">
-        <v>4.334133904826274</v>
+        <v>37.20774443738829</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.7235890364501</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>10.84997850388814</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>37.20774443738826</v>
+        <v>37.20774443738829</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.84997850388766</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4.334133904824668</v>
+        <v>48.05772294127692</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.72358903645002</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>48.05772294127648</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>48.05772294127605</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>359.8375769476206</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>342.3766270551476</v>
       </c>
       <c r="D41" t="n">
-        <v>331.786776904823</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>231.3220333826164</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>274.2690276056034</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>293.0786917733785</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.11602924690553</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2.701398249350522</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>144.3505563827679</v>
       </c>
       <c r="D43" t="n">
-        <v>53.31109764557992</v>
+        <v>125.7192083023524</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>123.5376979307092</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>122.5247833070713</v>
       </c>
       <c r="G43" t="n">
         <v>144.0654241031645</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>108.1164811336533</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1826063747886</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>200.6514469530203</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>229.241378607968</v>
       </c>
       <c r="W43" t="n">
         <v>263.626733620731</v>
       </c>
       <c r="X43" t="n">
-        <v>202.8133906731772</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>195.6883886362348</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>359.8375769476206</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>331.786776904823</v>
       </c>
       <c r="E44" t="n">
-        <v>157.3608607992181</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>390.111846105607</v>
+        <v>274.2690276056041</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>190.1548564967392</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>228.2658180564831</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.9357154660773</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>144.3505563827679</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>46.83863671150594</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>123.5376979307092</v>
       </c>
       <c r="F46" t="n">
         <v>122.5247833070713</v>
@@ -26041,7 +26041,7 @@
         <v>130.1795791773362</v>
       </c>
       <c r="I46" t="n">
-        <v>101.6006365345914</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>108.1164811336533</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>183.1826063747886</v>
       </c>
       <c r="T46" t="n">
-        <v>200.6514469530203</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>229.241378607968</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>263.626733620731</v>
       </c>
       <c r="X46" t="n">
-        <v>202.8133906731772</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.924342521429098</v>
+        <v>195.6883886362348</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766124.8946380521</v>
+        <v>766124.894638052</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>766124.8946380521</v>
+        <v>766124.894638052</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666611.681319368</v>
+        <v>666611.6813193678</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666611.6813193681</v>
+        <v>666611.681319368</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="E2" t="n">
-        <v>717402.3364494819</v>
+        <v>717402.3364494818</v>
       </c>
       <c r="F2" t="n">
-        <v>717402.3364494819</v>
+        <v>717402.3364494812</v>
       </c>
       <c r="G2" t="n">
         <v>717402.3364494818</v>
       </c>
       <c r="H2" t="n">
-        <v>717402.3364494819</v>
+        <v>717402.3364494818</v>
       </c>
       <c r="I2" t="n">
-        <v>717402.336449482</v>
+        <v>717402.3364494818</v>
       </c>
       <c r="J2" t="n">
         <v>717402.3364494818</v>
       </c>
       <c r="K2" t="n">
-        <v>717402.3364494818</v>
+        <v>717402.3364494819</v>
       </c>
       <c r="L2" t="n">
-        <v>717402.3364494818</v>
+        <v>717402.336449482</v>
       </c>
       <c r="M2" t="n">
-        <v>717402.3364494817</v>
+        <v>717402.3364494821</v>
       </c>
       <c r="N2" t="n">
-        <v>717402.3364494819</v>
+        <v>717402.336449482</v>
       </c>
       <c r="O2" t="n">
-        <v>617889.1231307967</v>
+        <v>617889.1231307965</v>
       </c>
       <c r="P2" t="n">
-        <v>617889.1231307964</v>
+        <v>617889.1231307966</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>724727.6731978382</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18317.01177268792</v>
+        <v>18317.0117726881</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329330.531561994</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="C4" t="n">
         <v>329330.531561994</v>
@@ -26424,19 +26424,19 @@
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
+        <v>137817.9209268561</v>
+      </c>
+      <c r="F4" t="n">
+        <v>137817.9209268561</v>
+      </c>
+      <c r="G4" t="n">
+        <v>137817.9209268561</v>
+      </c>
+      <c r="H4" t="n">
+        <v>137817.9209268561</v>
+      </c>
+      <c r="I4" t="n">
         <v>137817.9209268562</v>
-      </c>
-      <c r="F4" t="n">
-        <v>137817.9209268562</v>
-      </c>
-      <c r="G4" t="n">
-        <v>137817.9209268562</v>
-      </c>
-      <c r="H4" t="n">
-        <v>137817.9209268563</v>
-      </c>
-      <c r="I4" t="n">
-        <v>137817.9209268563</v>
       </c>
       <c r="J4" t="n">
         <v>137817.9209268562</v>
@@ -26448,13 +26448,13 @@
         <v>137817.9209268562</v>
       </c>
       <c r="M4" t="n">
-        <v>137817.9209268563</v>
+        <v>137817.9209268562</v>
       </c>
       <c r="N4" t="n">
-        <v>137817.9209268563</v>
+        <v>137817.9209268562</v>
       </c>
       <c r="O4" t="n">
-        <v>72745.9591777665</v>
+        <v>72745.95917776649</v>
       </c>
       <c r="P4" t="n">
         <v>72745.9591777665</v>
@@ -26482,7 +26482,7 @@
         <v>74412.83916400385</v>
       </c>
       <c r="G5" t="n">
-        <v>74412.83916400386</v>
+        <v>74412.83916400388</v>
       </c>
       <c r="H5" t="n">
         <v>74412.83916400385</v>
@@ -26506,10 +26506,10 @@
         <v>74412.83916400385</v>
       </c>
       <c r="O5" t="n">
-        <v>68999.39311828409</v>
+        <v>68999.39311828408</v>
       </c>
       <c r="P5" t="n">
-        <v>68999.39311828409</v>
+        <v>68999.39311828408</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>260030.3167739446</v>
+        <v>260030.3167739445</v>
       </c>
       <c r="C6" t="n">
+        <v>340799.7483054925</v>
+      </c>
+      <c r="D6" t="n">
         <v>340799.7483054924</v>
       </c>
-      <c r="D6" t="n">
-        <v>340799.748305492</v>
-      </c>
       <c r="E6" t="n">
-        <v>-219556.0968392164</v>
+        <v>-219558.9803025929</v>
       </c>
       <c r="F6" t="n">
-        <v>505171.5763586218</v>
+        <v>505168.6928952447</v>
       </c>
       <c r="G6" t="n">
-        <v>505171.5763586217</v>
+        <v>505168.6928952452</v>
       </c>
       <c r="H6" t="n">
-        <v>505171.5763586218</v>
+        <v>505168.6928952453</v>
       </c>
       <c r="I6" t="n">
-        <v>505171.5763586219</v>
+        <v>505168.6928952453</v>
       </c>
       <c r="J6" t="n">
-        <v>372280.3083090649</v>
+        <v>372277.4248456885</v>
       </c>
       <c r="K6" t="n">
-        <v>505171.5763586217</v>
+        <v>505168.6928952453</v>
       </c>
       <c r="L6" t="n">
-        <v>505171.5763586217</v>
+        <v>505168.6928952456</v>
       </c>
       <c r="M6" t="n">
-        <v>341313.0958183903</v>
+        <v>341310.2123550144</v>
       </c>
       <c r="N6" t="n">
-        <v>505171.5763586218</v>
+        <v>505168.6928952456</v>
       </c>
       <c r="O6" t="n">
-        <v>457826.7590620583</v>
+        <v>457539.5521320566</v>
       </c>
       <c r="P6" t="n">
-        <v>476143.7708347458</v>
+        <v>475856.5639047448</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>87.28915681306307</v>
       </c>
       <c r="F2" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="G2" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="H2" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="I2" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="J2" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="K2" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="L2" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="M2" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="N2" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="O2" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="P2" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>570.7883900499461</v>
       </c>
       <c r="G3" t="n">
-        <v>570.7883900499462</v>
+        <v>570.7883900499461</v>
       </c>
       <c r="H3" t="n">
         <v>570.7883900499461</v>
@@ -26774,7 +26774,7 @@
         <v>570.7883900499461</v>
       </c>
       <c r="O3" t="n">
-        <v>570.7883900499461</v>
+        <v>570.7883900499462</v>
       </c>
       <c r="P3" t="n">
         <v>570.7883900499461</v>
@@ -26802,34 +26802,34 @@
         <v>898.5417785657504</v>
       </c>
       <c r="G4" t="n">
+        <v>898.5417785657509</v>
+      </c>
+      <c r="H4" t="n">
         <v>898.5417785657505</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>898.5417785657504</v>
       </c>
-      <c r="I4" t="n">
-        <v>898.5417785657503</v>
-      </c>
       <c r="J4" t="n">
+        <v>898.5417785657504</v>
+      </c>
+      <c r="K4" t="n">
+        <v>898.5417785657504</v>
+      </c>
+      <c r="L4" t="n">
+        <v>898.5417785657504</v>
+      </c>
+      <c r="M4" t="n">
         <v>898.5417785657505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>898.5417785657505</v>
-      </c>
-      <c r="L4" t="n">
-        <v>898.5417785657505</v>
-      </c>
-      <c r="M4" t="n">
-        <v>898.5417785657504</v>
       </c>
       <c r="N4" t="n">
         <v>898.5417785657504</v>
       </c>
       <c r="O4" t="n">
-        <v>898.5417785657505</v>
+        <v>898.5417785657504</v>
       </c>
       <c r="P4" t="n">
-        <v>898.5417785657505</v>
+        <v>898.5417785657504</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>87.28915681306307</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306312</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.8962647158599</v>
+        <v>22.89626471585999</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>657.5274896880912</v>
+        <v>657.5274896880915</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>87.28915681306307</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.28915681306307</v>
+        <v>87.28915681306312</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>149.3681997291715</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27421,19 +27421,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
@@ -27442,7 +27442,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>307.4900961561543</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.12409068615514</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,19 +27509,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>56.53781011324816</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,13 +27591,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>160.1841744027037</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>286.9999641950982</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,7 +27710,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>47.10484217125915</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27743,13 +27743,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>146.4615314240553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>132.5822199426737</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>148.2348850480911</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27944,10 +27944,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>93.99640450649281</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="C14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="D14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="E14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="F14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="G14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="H14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="I14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>5.729273895019304</v>
       </c>
       <c r="S14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="T14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="U14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="V14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="W14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="X14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Y14" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="C16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="D16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="E16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="F16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="G16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="H16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="I16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="J16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="K16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="L16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="M16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="N16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="O16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="P16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="R16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="S16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="T16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="U16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="V16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="W16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="X16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="C17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="D17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="E17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="F17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="G17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="H17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="I17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>5.729273895019276</v>
+        <v>5.729273895019304</v>
       </c>
       <c r="S17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="T17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="U17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="V17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="W17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="X17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Y17" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="C19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="D19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="E19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="F19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="G19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="H19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="I19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="J19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="K19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="L19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="M19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="N19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="O19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="P19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="R19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="S19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="T19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="U19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="V19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="W19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="X19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>87.28915681306421</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="C20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="D20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="E20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="F20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="G20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="H20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="I20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>5.729273895019304</v>
       </c>
       <c r="S20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="T20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="U20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="V20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="W20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="X20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Y20" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="C22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="D22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="E22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="F22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="G22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="H22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="I22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="J22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="K22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="L22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="M22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="N22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="O22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="P22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="R22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="S22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="T22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="U22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="V22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="W22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="X22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.28915681306421</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="C23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="D23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="E23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="F23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="G23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="H23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="I23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>5.729273895019304</v>
       </c>
       <c r="S23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="T23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="U23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="V23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="W23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306466</v>
       </c>
       <c r="X23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Y23" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="C25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="D25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="E25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="F25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="G25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="H25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="I25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="J25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="K25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="L25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="M25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="N25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="O25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="P25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="R25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="S25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="T25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="U25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="V25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="W25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="X25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306304</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>5.729273895019304</v>
       </c>
       <c r="S26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y26" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="K28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="L28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="M28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="N28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="O28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="P28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="R28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="S28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y28" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>5.729273895019304</v>
       </c>
       <c r="S29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y29" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="K31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="L31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="M31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="N31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="O31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="P31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="R31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="S31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y31" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>5.729273895019304</v>
       </c>
       <c r="S32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="K34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="L34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="M34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="N34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="O34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="P34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="R34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="S34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.28915681306312</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>5.729273895019304</v>
       </c>
       <c r="S35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="K37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="L37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="M37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="N37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="O37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="P37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="R37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="S37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.28915681306319</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C38" t="n">
-        <v>87.28915681306421</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>5.729273895019304</v>
       </c>
       <c r="S38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="C40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="D40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="E40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="F40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="G40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="H40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="I40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="J40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="K40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="L40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="M40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="N40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="O40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="P40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="R40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="S40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="T40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="U40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="V40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="W40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="X40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.28915681306313</v>
+        <v>87.28915681306309</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="C41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="D41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="E41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="F41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="G41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="H41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="I41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.729273895019304</v>
+        <v>5.729273895019276</v>
       </c>
       <c r="S41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="T41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="U41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="V41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="W41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="X41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="Y41" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="C43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="D43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="E43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="F43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="G43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="H43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="I43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="J43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="K43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="L43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="M43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="N43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="O43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="P43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="R43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="S43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="T43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="U43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="V43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="W43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="X43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="Y43" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="C44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="D44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="E44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="F44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="G44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="H44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="I44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>5.729273895019304</v>
       </c>
       <c r="S44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="T44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="U44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="V44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="W44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="X44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="Y44" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="C46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="D46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="E46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="F46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="G46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="H46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="I46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="J46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="K46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="L46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="M46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="N46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="O46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="P46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="R46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="S46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="T46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="U46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="V46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="W46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="X46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
       <c r="Y46" t="n">
-        <v>22.89626471585996</v>
+        <v>22.89626471585995</v>
       </c>
     </row>
   </sheetData>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.294626693668124</v>
+        <v>2.294626693668123</v>
       </c>
       <c r="H17" t="n">
-        <v>23.49984562652868</v>
+        <v>23.49984562652867</v>
       </c>
       <c r="I17" t="n">
-        <v>88.46359560764043</v>
+        <v>88.4635956076404</v>
       </c>
       <c r="J17" t="n">
         <v>194.7535723417151</v>
@@ -32242,31 +32242,31 @@
         <v>362.1093019610327</v>
       </c>
       <c r="M17" t="n">
-        <v>402.9163694245532</v>
+        <v>402.9163694245531</v>
       </c>
       <c r="N17" t="n">
-        <v>409.4359775179378</v>
+        <v>409.4359775179377</v>
       </c>
       <c r="O17" t="n">
-        <v>386.6187833327754</v>
+        <v>386.6187833327753</v>
       </c>
       <c r="P17" t="n">
         <v>329.9701868328435</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.7938683658538</v>
+        <v>247.7938683658537</v>
       </c>
       <c r="R17" t="n">
         <v>144.1398440461304</v>
       </c>
       <c r="S17" t="n">
-        <v>52.28880578196242</v>
+        <v>52.28880578196241</v>
       </c>
       <c r="T17" t="n">
-        <v>10.04472835153222</v>
+        <v>10.04472835153221</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1835701354934499</v>
+        <v>0.1835701354934498</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>11.85732108386775</v>
       </c>
       <c r="I18" t="n">
-        <v>42.27064964049131</v>
+        <v>42.2706496404913</v>
       </c>
       <c r="J18" t="n">
-        <v>115.9938934911877</v>
+        <v>115.9938934911876</v>
       </c>
       <c r="K18" t="n">
-        <v>198.2520392119705</v>
+        <v>198.2520392119704</v>
       </c>
       <c r="L18" t="n">
         <v>266.5743325417225</v>
       </c>
       <c r="M18" t="n">
-        <v>311.0796725772207</v>
+        <v>311.0796725772205</v>
       </c>
       <c r="N18" t="n">
         <v>319.3130258638845</v>
       </c>
       <c r="O18" t="n">
-        <v>292.1090358022588</v>
+        <v>292.1090358022587</v>
       </c>
       <c r="P18" t="n">
         <v>234.4432540188166</v>
       </c>
       <c r="Q18" t="n">
-        <v>156.7191066416381</v>
+        <v>156.719106641638</v>
       </c>
       <c r="R18" t="n">
-        <v>76.22717405233058</v>
+        <v>76.22717405233057</v>
       </c>
       <c r="S18" t="n">
-        <v>22.8046116213351</v>
+        <v>22.80461162133509</v>
       </c>
       <c r="T18" t="n">
-        <v>4.948627645810381</v>
+        <v>4.94862764581038</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08077194198819997</v>
+        <v>0.08077194198819995</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>1.029290539434329</v>
       </c>
       <c r="H19" t="n">
-        <v>9.151328614243406</v>
+        <v>9.151328614243404</v>
       </c>
       <c r="I19" t="n">
-        <v>30.95357367680693</v>
+        <v>30.95357367680692</v>
       </c>
       <c r="J19" t="n">
-        <v>72.77084113800706</v>
+        <v>72.77084113800704</v>
       </c>
       <c r="K19" t="n">
-        <v>119.5848463088248</v>
+        <v>119.5848463088247</v>
       </c>
       <c r="L19" t="n">
-        <v>153.0274316537184</v>
+        <v>153.0274316537183</v>
       </c>
       <c r="M19" t="n">
         <v>161.3459706496921</v>
       </c>
       <c r="N19" t="n">
-        <v>157.5095240936189</v>
+        <v>157.5095240936188</v>
       </c>
       <c r="O19" t="n">
         <v>145.4855391556814</v>
@@ -32412,19 +32412,19 @@
         <v>124.488012151221</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.18904689754187</v>
+        <v>86.18904689754186</v>
       </c>
       <c r="R19" t="n">
-        <v>46.28064552765628</v>
+        <v>46.28064552765627</v>
       </c>
       <c r="S19" t="n">
         <v>17.93772694632371</v>
       </c>
       <c r="T19" t="n">
-        <v>4.397877759401223</v>
+        <v>4.397877759401222</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05614312033278165</v>
+        <v>0.05614312033278164</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.294626693668123</v>
+        <v>2.294626693668124</v>
       </c>
       <c r="H41" t="n">
-        <v>23.49984562652867</v>
+        <v>23.49984562652868</v>
       </c>
       <c r="I41" t="n">
-        <v>88.4635956076404</v>
+        <v>88.46359560764043</v>
       </c>
       <c r="J41" t="n">
         <v>194.7535723417151</v>
@@ -34138,31 +34138,31 @@
         <v>362.1093019610327</v>
       </c>
       <c r="M41" t="n">
-        <v>402.9163694245531</v>
+        <v>402.9163694245532</v>
       </c>
       <c r="N41" t="n">
-        <v>409.4359775179377</v>
+        <v>409.4359775179378</v>
       </c>
       <c r="O41" t="n">
-        <v>386.6187833327753</v>
+        <v>386.6187833327754</v>
       </c>
       <c r="P41" t="n">
         <v>329.9701868328435</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.7938683658537</v>
+        <v>247.7938683658538</v>
       </c>
       <c r="R41" t="n">
         <v>144.1398440461304</v>
       </c>
       <c r="S41" t="n">
-        <v>52.28880578196241</v>
+        <v>52.28880578196242</v>
       </c>
       <c r="T41" t="n">
-        <v>10.04472835153221</v>
+        <v>10.04472835153222</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1835701354934498</v>
+        <v>0.1835701354934499</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>11.85732108386775</v>
       </c>
       <c r="I42" t="n">
-        <v>42.2706496404913</v>
+        <v>42.27064964049131</v>
       </c>
       <c r="J42" t="n">
-        <v>115.9938934911876</v>
+        <v>115.9938934911877</v>
       </c>
       <c r="K42" t="n">
-        <v>198.2520392119704</v>
+        <v>198.2520392119705</v>
       </c>
       <c r="L42" t="n">
         <v>266.5743325417225</v>
       </c>
       <c r="M42" t="n">
-        <v>311.0796725772205</v>
+        <v>311.0796725772207</v>
       </c>
       <c r="N42" t="n">
         <v>319.3130258638845</v>
       </c>
       <c r="O42" t="n">
-        <v>292.1090358022587</v>
+        <v>292.1090358022588</v>
       </c>
       <c r="P42" t="n">
         <v>234.4432540188166</v>
       </c>
       <c r="Q42" t="n">
-        <v>156.719106641638</v>
+        <v>156.7191066416381</v>
       </c>
       <c r="R42" t="n">
-        <v>76.22717405233057</v>
+        <v>76.22717405233058</v>
       </c>
       <c r="S42" t="n">
-        <v>22.80461162133509</v>
+        <v>22.8046116213351</v>
       </c>
       <c r="T42" t="n">
-        <v>4.94862764581038</v>
+        <v>4.948627645810381</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08077194198819995</v>
+        <v>0.08077194198819997</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>1.029290539434329</v>
       </c>
       <c r="H43" t="n">
-        <v>9.151328614243404</v>
+        <v>9.151328614243406</v>
       </c>
       <c r="I43" t="n">
-        <v>30.95357367680692</v>
+        <v>30.95357367680693</v>
       </c>
       <c r="J43" t="n">
-        <v>72.77084113800704</v>
+        <v>72.77084113800706</v>
       </c>
       <c r="K43" t="n">
-        <v>119.5848463088247</v>
+        <v>119.5848463088248</v>
       </c>
       <c r="L43" t="n">
-        <v>153.0274316537183</v>
+        <v>153.0274316537184</v>
       </c>
       <c r="M43" t="n">
         <v>161.3459706496921</v>
       </c>
       <c r="N43" t="n">
-        <v>157.5095240936188</v>
+        <v>157.5095240936189</v>
       </c>
       <c r="O43" t="n">
         <v>145.4855391556814</v>
@@ -34308,19 +34308,19 @@
         <v>124.488012151221</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.18904689754186</v>
+        <v>86.18904689754187</v>
       </c>
       <c r="R43" t="n">
-        <v>46.28064552765627</v>
+        <v>46.28064552765628</v>
       </c>
       <c r="S43" t="n">
         <v>17.93772694632371</v>
       </c>
       <c r="T43" t="n">
-        <v>4.397877759401222</v>
+        <v>4.397877759401223</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05614312033278164</v>
+        <v>0.05614312033278165</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>115.2473021649298</v>
       </c>
       <c r="K12" t="n">
-        <v>60.41060023761145</v>
+        <v>324.87583725019</v>
       </c>
       <c r="L12" t="n">
-        <v>273.4754647481862</v>
+        <v>498.8602980653075</v>
       </c>
       <c r="M12" t="n">
-        <v>634.6507024052021</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N12" t="n">
         <v>667.3136881241047</v>
       </c>
       <c r="O12" t="n">
-        <v>543.3751106345438</v>
+        <v>193.9055141540648</v>
       </c>
       <c r="P12" t="n">
         <v>418.9316152444235</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.73733255561652</v>
+        <v>226.8146202914656</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>324.87583725019</v>
       </c>
       <c r="L15" t="n">
-        <v>498.8602980653075</v>
+        <v>278.2753143433122</v>
       </c>
       <c r="M15" t="n">
         <v>634.6507024052021</v>
       </c>
       <c r="N15" t="n">
-        <v>564.464115810293</v>
+        <v>187.9713137805512</v>
       </c>
       <c r="O15" t="n">
-        <v>149.5127913578143</v>
+        <v>543.3751106345438</v>
       </c>
       <c r="P15" t="n">
-        <v>100.4688466044863</v>
+        <v>418.9316152444235</v>
       </c>
       <c r="Q15" t="n">
         <v>226.8146202914656</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>66.70081783439738</v>
+        <v>66.70081783439731</v>
       </c>
       <c r="K16" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960049</v>
       </c>
       <c r="L16" t="n">
-        <v>267.9066137270976</v>
+        <v>267.9066137270975</v>
       </c>
       <c r="M16" t="n">
-        <v>288.2190044245958</v>
+        <v>288.2190044245957</v>
       </c>
       <c r="N16" t="n">
-        <v>288.9308532859105</v>
+        <v>288.9308532859104</v>
       </c>
       <c r="O16" t="n">
-        <v>257.3598238827842</v>
+        <v>257.3598238827841</v>
       </c>
       <c r="P16" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.31616045891059</v>
+        <v>87.31616045891052</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>182.8042829871026</v>
+        <v>182.8042829871025</v>
       </c>
       <c r="K17" t="n">
         <v>395.940681810871</v>
@@ -35890,19 +35890,19 @@
         <v>544.0041015414959</v>
       </c>
       <c r="M17" t="n">
-        <v>622.083669690113</v>
+        <v>622.0836696901129</v>
       </c>
       <c r="N17" t="n">
         <v>617.369838333331</v>
       </c>
       <c r="O17" t="n">
-        <v>537.320753173834</v>
+        <v>537.3207531738357</v>
       </c>
       <c r="P17" t="n">
         <v>420.5358992490566</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.803169151309</v>
+        <v>237.8031691513089</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>324.8758372501901</v>
+        <v>90.65354293464081</v>
       </c>
       <c r="L18" t="n">
-        <v>128.0199527618483</v>
+        <v>498.8602980653075</v>
       </c>
       <c r="M18" t="n">
-        <v>634.6507024052023</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N18" t="n">
-        <v>656.6894440019514</v>
+        <v>667.3136881241047</v>
       </c>
       <c r="O18" t="n">
-        <v>543.3751106345439</v>
+        <v>543.3751106345438</v>
       </c>
       <c r="P18" t="n">
-        <v>100.4688466044864</v>
+        <v>418.9316152444235</v>
       </c>
       <c r="Q18" t="n">
         <v>226.8146202914656</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>66.7008178343974</v>
+        <v>66.70081783439731</v>
       </c>
       <c r="K19" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960049</v>
       </c>
       <c r="L19" t="n">
-        <v>267.9066137270976</v>
+        <v>267.9066137270975</v>
       </c>
       <c r="M19" t="n">
-        <v>288.2190044245958</v>
+        <v>288.2190044245957</v>
       </c>
       <c r="N19" t="n">
-        <v>288.9308532859105</v>
+        <v>288.9308532859104</v>
       </c>
       <c r="O19" t="n">
-        <v>257.3598238827842</v>
+        <v>257.3598238827841</v>
       </c>
       <c r="P19" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.3161604589106</v>
+        <v>87.31616045891052</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>544.0041015414959</v>
       </c>
       <c r="M20" t="n">
-        <v>622.0836696901129</v>
+        <v>622.0836696901133</v>
       </c>
       <c r="N20" t="n">
         <v>617.369838333331</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>115.2473021649298</v>
       </c>
       <c r="K21" t="n">
         <v>324.87583725019</v>
@@ -36206,7 +36206,7 @@
         <v>128.0199527618483</v>
       </c>
       <c r="M21" t="n">
-        <v>305.5636896431123</v>
+        <v>190.3163874781825</v>
       </c>
       <c r="N21" t="n">
         <v>667.3136881241047</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>66.70081783439738</v>
+        <v>66.70081783439731</v>
       </c>
       <c r="K22" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960049</v>
       </c>
       <c r="L22" t="n">
-        <v>267.9066137270976</v>
+        <v>267.9066137270975</v>
       </c>
       <c r="M22" t="n">
-        <v>288.2190044245958</v>
+        <v>288.2190044245957</v>
       </c>
       <c r="N22" t="n">
-        <v>288.9308532859105</v>
+        <v>288.9308532859104</v>
       </c>
       <c r="O22" t="n">
-        <v>257.3598238827842</v>
+        <v>257.3598238827841</v>
       </c>
       <c r="P22" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.31616045891059</v>
+        <v>87.31616045891052</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>324.87583725019</v>
       </c>
       <c r="L24" t="n">
-        <v>128.0199527618483</v>
+        <v>498.8602980653075</v>
       </c>
       <c r="M24" t="n">
-        <v>400.3936752140316</v>
+        <v>634.6507024052021</v>
       </c>
       <c r="N24" t="n">
-        <v>667.3136881241047</v>
+        <v>361.2486493352851</v>
       </c>
       <c r="O24" t="n">
-        <v>543.3751106345438</v>
+        <v>149.5127913578143</v>
       </c>
       <c r="P24" t="n">
         <v>418.9316152444235</v>
       </c>
       <c r="Q24" t="n">
-        <v>16.73733255561652</v>
+        <v>226.8146202914656</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>66.70081783439738</v>
+        <v>66.70081783439731</v>
       </c>
       <c r="K25" t="n">
-        <v>184.604511296005</v>
+        <v>184.6045112960049</v>
       </c>
       <c r="L25" t="n">
-        <v>267.9066137270976</v>
+        <v>267.9066137270975</v>
       </c>
       <c r="M25" t="n">
-        <v>288.2190044245958</v>
+        <v>288.2190044245957</v>
       </c>
       <c r="N25" t="n">
-        <v>288.9308532859105</v>
+        <v>288.9308532859104</v>
       </c>
       <c r="O25" t="n">
-        <v>257.3598238827842</v>
+        <v>257.3598238827841</v>
       </c>
       <c r="P25" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q25" t="n">
-        <v>87.31616045891059</v>
+        <v>87.31616045891052</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>324.87583725019</v>
+        <v>60.41060023761145</v>
       </c>
       <c r="L27" t="n">
-        <v>163.0280121783824</v>
+        <v>128.0199527618483</v>
       </c>
       <c r="M27" t="n">
         <v>634.6507024052021</v>
       </c>
       <c r="N27" t="n">
-        <v>187.9713137805512</v>
+        <v>667.3136881241047</v>
       </c>
       <c r="O27" t="n">
-        <v>543.3751106345438</v>
+        <v>478.7533348850325</v>
       </c>
       <c r="P27" t="n">
         <v>418.9316152444235</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>66.70081783439738</v>
+        <v>66.70081783439736</v>
       </c>
       <c r="K28" t="n">
         <v>184.604511296005</v>
@@ -36768,10 +36768,10 @@
         <v>257.3598238827842</v>
       </c>
       <c r="P28" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q28" t="n">
-        <v>87.31616045891059</v>
+        <v>87.31616045891056</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>115.2473021649298</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>324.87583725019</v>
+        <v>60.41060023761145</v>
       </c>
       <c r="L30" t="n">
         <v>498.8602980653075</v>
       </c>
       <c r="M30" t="n">
-        <v>617.2811851582143</v>
+        <v>199.1885813522317</v>
       </c>
       <c r="N30" t="n">
-        <v>187.9713137805512</v>
+        <v>667.3136881241047</v>
       </c>
       <c r="O30" t="n">
         <v>543.3751106345438</v>
       </c>
       <c r="P30" t="n">
-        <v>100.4688466044863</v>
+        <v>418.9316152444235</v>
       </c>
       <c r="Q30" t="n">
         <v>226.8146202914656</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>66.70081783439738</v>
+        <v>66.70081783439736</v>
       </c>
       <c r="K31" t="n">
         <v>184.604511296005</v>
@@ -37005,10 +37005,10 @@
         <v>257.3598238827842</v>
       </c>
       <c r="P31" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q31" t="n">
-        <v>87.31616045891059</v>
+        <v>87.31616045891056</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>115.2473021649298</v>
       </c>
       <c r="K33" t="n">
-        <v>60.41060023761145</v>
+        <v>293.8690094096482</v>
       </c>
       <c r="L33" t="n">
         <v>498.8602980653075</v>
       </c>
       <c r="M33" t="n">
-        <v>634.6507024052021</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N33" t="n">
-        <v>326.6815526420538</v>
+        <v>667.3136881241047</v>
       </c>
       <c r="O33" t="n">
         <v>543.3751106345438</v>
       </c>
       <c r="P33" t="n">
-        <v>418.9316152444235</v>
+        <v>100.4688466044863</v>
       </c>
       <c r="Q33" t="n">
-        <v>16.73733255561652</v>
+        <v>226.8146202914656</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>66.70081783439738</v>
+        <v>66.70081783439736</v>
       </c>
       <c r="K34" t="n">
         <v>184.604511296005</v>
@@ -37242,10 +37242,10 @@
         <v>257.3598238827842</v>
       </c>
       <c r="P34" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.31616045891059</v>
+        <v>87.31616045891056</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>324.87583725019</v>
       </c>
       <c r="L36" t="n">
-        <v>287.6252448474077</v>
+        <v>498.8602980653075</v>
       </c>
       <c r="M36" t="n">
         <v>634.6507024052021</v>
@@ -37400,10 +37400,10 @@
         <v>149.5127913578143</v>
       </c>
       <c r="P36" t="n">
-        <v>418.9316152444235</v>
+        <v>100.4688466044863</v>
       </c>
       <c r="Q36" t="n">
-        <v>16.73733255561652</v>
+        <v>123.9650479776541</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>66.70081783439745</v>
+        <v>66.70081783439736</v>
       </c>
       <c r="K37" t="n">
-        <v>184.6045112960051</v>
+        <v>184.604511296005</v>
       </c>
       <c r="L37" t="n">
-        <v>267.9066137270977</v>
+        <v>267.9066137270976</v>
       </c>
       <c r="M37" t="n">
-        <v>288.2190044245959</v>
+        <v>288.2190044245958</v>
       </c>
       <c r="N37" t="n">
-        <v>288.9308532859106</v>
+        <v>288.9308532859105</v>
       </c>
       <c r="O37" t="n">
         <v>257.3598238827842</v>
       </c>
       <c r="P37" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.31616045891066</v>
+        <v>87.31616045891056</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>115.2473021649298</v>
       </c>
       <c r="K39" t="n">
-        <v>314.2515931280374</v>
+        <v>324.87583725019</v>
       </c>
       <c r="L39" t="n">
-        <v>128.0199527618483</v>
+        <v>498.8602980653075</v>
       </c>
       <c r="M39" t="n">
-        <v>634.6507024052021</v>
+        <v>168.9456386552022</v>
       </c>
       <c r="N39" t="n">
         <v>667.3136881241047</v>
       </c>
       <c r="O39" t="n">
-        <v>543.3751106345438</v>
+        <v>403.9828018899142</v>
       </c>
       <c r="P39" t="n">
-        <v>100.4688466044863</v>
+        <v>418.9316152444235</v>
       </c>
       <c r="Q39" t="n">
-        <v>226.8146202914656</v>
+        <v>16.73733255561652</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>66.7008178343974</v>
+        <v>66.70081783439736</v>
       </c>
       <c r="K40" t="n">
         <v>184.604511296005</v>
@@ -37716,10 +37716,10 @@
         <v>257.3598238827842</v>
       </c>
       <c r="P40" t="n">
-        <v>209.0557282291776</v>
+        <v>209.0557282291775</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.3161604589106</v>
+        <v>87.31616045891056</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.8042829871025</v>
+        <v>182.8042829871026</v>
       </c>
       <c r="K41" t="n">
         <v>395.940681810871</v>
       </c>
       <c r="L41" t="n">
-        <v>544.0041015414964</v>
+        <v>544.0041015414959</v>
       </c>
       <c r="M41" t="n">
-        <v>622.0836696901129</v>
+        <v>622.083669690113</v>
       </c>
       <c r="N41" t="n">
         <v>617.369838333331</v>
@@ -37798,7 +37798,7 @@
         <v>420.5358992490566</v>
       </c>
       <c r="Q41" t="n">
-        <v>237.8031691513089</v>
+        <v>237.803169151309</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>115.2473021649298</v>
       </c>
       <c r="K42" t="n">
-        <v>324.87583725019</v>
+        <v>324.8758372501901</v>
       </c>
       <c r="L42" t="n">
-        <v>498.8602980653075</v>
+        <v>128.0199527618483</v>
       </c>
       <c r="M42" t="n">
-        <v>298.818416518277</v>
+        <v>634.6507024052023</v>
       </c>
       <c r="N42" t="n">
-        <v>187.9713137805512</v>
+        <v>616.8416924738143</v>
       </c>
       <c r="O42" t="n">
-        <v>543.3751106345438</v>
+        <v>149.5127913578144</v>
       </c>
       <c r="P42" t="n">
         <v>418.9316152444235</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.307925737194225</v>
+        <v>2.307925737194239</v>
       </c>
       <c r="K43" t="n">
         <v>120.2116191988019</v>
       </c>
       <c r="L43" t="n">
-        <v>203.5137216298944</v>
+        <v>203.5137216298945</v>
       </c>
       <c r="M43" t="n">
         <v>223.8261123273927</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.8042829871025</v>
+        <v>182.8042829871027</v>
       </c>
       <c r="K44" t="n">
         <v>395.940681810871</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>115.2473021649298</v>
       </c>
       <c r="K45" t="n">
         <v>60.41060023761145</v>
       </c>
       <c r="L45" t="n">
-        <v>273.4754647481862</v>
+        <v>498.8602980653075</v>
       </c>
       <c r="M45" t="n">
         <v>634.6507024052021</v>
@@ -38108,13 +38108,13 @@
         <v>667.3136881241047</v>
       </c>
       <c r="O45" t="n">
-        <v>543.3751106345438</v>
+        <v>149.5127913578143</v>
       </c>
       <c r="P45" t="n">
         <v>418.9316152444235</v>
       </c>
       <c r="Q45" t="n">
-        <v>16.73733255561652</v>
+        <v>69.96751635029483</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.307925737194225</v>
+        <v>2.307925737194221</v>
       </c>
       <c r="K46" t="n">
-        <v>120.2116191988019</v>
+        <v>120.2116191988018</v>
       </c>
       <c r="L46" t="n">
         <v>203.5137216298944</v>
@@ -38193,7 +38193,7 @@
         <v>144.6628361319744</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.92326836170744</v>
+        <v>22.92326836170743</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
